--- a/data/4dsw_eligible_citations_links.xlsx
+++ b/data/4dsw_eligible_citations_links.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoregon-my.sharepoint.com/personal/ksteinka_uoregon_edu/Documents/Desktop/4DSW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoregon-my.sharepoint.com/personal/strevino_uoregon_edu/Documents/Desktop/HEDCO Institute/GitHub R Projects/4DSW_Scoping_Review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="500" documentId="8_{DD2EE4A3-A625-40AE-A745-58941D767F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15EAA2CE-8327-4E05-BE9C-4347CD5BD0C5}"/>
+  <xr:revisionPtr revIDLastSave="554" documentId="8_{DD2EE4A3-A625-40AE-A745-58941D767F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A372B5-6F5B-4369-91E7-56FFA08426FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$116</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="410">
   <si>
     <t>Refid</t>
   </si>
@@ -1154,6 +1157,123 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Other public link</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/docview/251435536</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED554873</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED621725</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED558357</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/d7304b2105e388996f013343673054f1/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/f5da0fcd13d6f16ca3ee4161c2761a79/1?pq-origsite=gscholar&amp;cbl=18750</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/4be1cb168d1d05522c24c79b4400ad5f/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/ba464dab7b1aab53e728a245dcaa0a00/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/8b3042c31530455656292f81cd1ef48a/1?pq-origsite=gscholar&amp;cbl=18750</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/8213d9d9005abbc65e7d8c2898f2c5e3/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/38b0c767bc52d19aad5688bc69c13450/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/feff2c6c9fba2f3bfe065a5ef3247f07/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/c898cb77797810b521a024f26f91f776/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/20386479</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/6eb8d24f2a4d2aa7415756482815fe05/1?pq-origsite=gscholar&amp;cbl=18750</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/7dc8f89fbd99e26669d530142d161e26/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/c081c742ba9eceb276a5e1d6cea1704f/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/9c1a9abb65fcb7159b6ef52ca95713a2/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/6fb8d8f9984e83b66e07d3a69f4a735d/1?pq-origsite=gscholar&amp;cbl=18750</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/ac875a385ba44e0efc99c3dfaf26c68a/1?pq-origsite=gscholar&amp;cbl=44156</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/2543f741c052fdc7d647e2d7a028b571/1?pq-origsite=gscholar&amp;cbl=18750</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED577637</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/66a756707b16f66044d50d89f2d0b84f/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED568576</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED570747</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/6c8f74051d400e409820a68d9584c1c7/1?pq-origsite=gscholar&amp;cbl=18750</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/428cb8f2cc927fa598aabfbb8bb7e545/1?pq-origsite=gscholar&amp;cbl=18750</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED586537</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/0f2a4f23ddafaf69e32f85d7c7ffb7a7/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/e3cb5e3791e727356e2a6ac5311e4cfa/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/8ac0643ee8b4d6740660ecb801176e27/1?pq-origsite=gscholar&amp;cbl=18750&amp;diss=y</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED230337</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED214719</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED218050</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED202650</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=EJ214271</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED513043</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/pqdtglobal/docview/1822202940/5BC179095E9B4B50PQ/</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1235,9 +1355,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1553,26 +1674,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
+    <col min="3" max="3" width="21.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="36.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1589,13 +1711,16 @@
         <v>348</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1609,8 +1734,9 @@
         <v>287</v>
       </c>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1624,8 +1750,9 @@
         <v>288</v>
       </c>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1639,8 +1766,9 @@
         <v>289</v>
       </c>
       <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1654,8 +1782,9 @@
         <v>290</v>
       </c>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1666,12 +1795,15 @@
         <v>13</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1685,8 +1817,9 @@
         <v>291</v>
       </c>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1700,8 +1833,9 @@
         <v>292</v>
       </c>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -1718,8 +1852,9 @@
         <v>293</v>
       </c>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1729,12 +1864,15 @@
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1748,8 +1886,9 @@
         <v>294</v>
       </c>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -1759,12 +1898,15 @@
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -1778,8 +1920,9 @@
         <v>295</v>
       </c>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1793,8 +1936,9 @@
         <v>296</v>
       </c>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -1808,8 +1952,9 @@
         <v>297</v>
       </c>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>19</v>
       </c>
@@ -1823,8 +1968,9 @@
         <v>298</v>
       </c>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -1838,8 +1984,9 @@
         <v>299</v>
       </c>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -1853,8 +2000,9 @@
         <v>300</v>
       </c>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>22</v>
       </c>
@@ -1864,12 +2012,15 @@
       <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>23</v>
       </c>
@@ -1879,12 +2030,15 @@
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -1899,8 +2053,9 @@
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>27</v>
       </c>
@@ -1914,8 +2069,9 @@
         <v>302</v>
       </c>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>28</v>
       </c>
@@ -1925,12 +2081,15 @@
       <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>29</v>
       </c>
@@ -1944,8 +2103,9 @@
         <v>303</v>
       </c>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="234" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30</v>
       </c>
@@ -1955,12 +2115,15 @@
       <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>31</v>
       </c>
@@ -1974,8 +2137,9 @@
         <v>304</v>
       </c>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>33</v>
       </c>
@@ -1991,9 +2155,10 @@
       <c r="E27" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="F27" s="6"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>35</v>
       </c>
@@ -2007,8 +2172,9 @@
         <v>305</v>
       </c>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>36</v>
       </c>
@@ -2025,8 +2191,9 @@
         <v>65</v>
       </c>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37</v>
       </c>
@@ -2040,8 +2207,9 @@
         <v>306</v>
       </c>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>38</v>
       </c>
@@ -2055,8 +2223,9 @@
         <v>70</v>
       </c>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>39</v>
       </c>
@@ -2066,12 +2235,15 @@
       <c r="C32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40</v>
       </c>
@@ -2081,12 +2253,15 @@
       <c r="C33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42</v>
       </c>
@@ -2096,12 +2271,15 @@
       <c r="C34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43</v>
       </c>
@@ -2111,12 +2289,15 @@
       <c r="C35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45</v>
       </c>
@@ -2130,8 +2311,9 @@
         <v>307</v>
       </c>
       <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>46</v>
       </c>
@@ -2148,8 +2330,9 @@
         <v>84</v>
       </c>
       <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>47</v>
       </c>
@@ -2166,8 +2349,9 @@
         <v>308</v>
       </c>
       <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>48</v>
       </c>
@@ -2184,8 +2368,9 @@
         <v>309</v>
       </c>
       <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>49</v>
       </c>
@@ -2202,8 +2387,9 @@
         <v>94</v>
       </c>
       <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -2220,8 +2406,9 @@
         <v>310</v>
       </c>
       <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -2237,8 +2424,9 @@
       <c r="E42" s="6" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>53</v>
       </c>
@@ -2255,8 +2443,9 @@
         <v>312</v>
       </c>
       <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>54</v>
       </c>
@@ -2273,8 +2462,9 @@
         <v>107</v>
       </c>
       <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>56</v>
       </c>
@@ -2288,8 +2478,9 @@
         <v>313</v>
       </c>
       <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>57</v>
       </c>
@@ -2303,8 +2494,9 @@
         <v>314</v>
       </c>
       <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>59</v>
       </c>
@@ -2314,12 +2506,15 @@
       <c r="C47" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>60</v>
       </c>
@@ -2333,8 +2528,9 @@
         <v>315</v>
       </c>
       <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>61</v>
       </c>
@@ -2348,8 +2544,9 @@
         <v>118</v>
       </c>
       <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>62</v>
       </c>
@@ -2359,12 +2556,15 @@
       <c r="C50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>63</v>
       </c>
@@ -2374,12 +2574,15 @@
       <c r="C51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>64</v>
       </c>
@@ -2389,12 +2592,15 @@
       <c r="C52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>65</v>
       </c>
@@ -2404,12 +2610,15 @@
       <c r="C53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>66</v>
       </c>
@@ -2423,8 +2632,9 @@
         <v>316</v>
       </c>
       <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>68</v>
       </c>
@@ -2434,12 +2644,15 @@
       <c r="C55" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>69</v>
       </c>
@@ -2453,8 +2666,9 @@
         <v>317</v>
       </c>
       <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>70</v>
       </c>
@@ -2468,8 +2682,9 @@
         <v>318</v>
       </c>
       <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>72</v>
       </c>
@@ -2483,8 +2698,9 @@
         <v>319</v>
       </c>
       <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>73</v>
       </c>
@@ -2498,8 +2714,9 @@
         <v>320</v>
       </c>
       <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>75</v>
       </c>
@@ -2513,8 +2730,9 @@
         <v>144</v>
       </c>
       <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" ht="249.6" x14ac:dyDescent="0.3">
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>76</v>
       </c>
@@ -2524,15 +2742,18 @@
       <c r="C61" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="156" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>77</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2545,11 +2766,12 @@
         <v>151</v>
       </c>
       <c r="F62" s="4"/>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="4"/>
+      <c r="H62" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>78</v>
       </c>
@@ -2563,8 +2785,9 @@
         <v>321</v>
       </c>
       <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>80</v>
       </c>
@@ -2581,8 +2804,9 @@
         <v>360</v>
       </c>
       <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>81</v>
       </c>
@@ -2596,8 +2820,9 @@
         <v>322</v>
       </c>
       <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>82</v>
       </c>
@@ -2607,11 +2832,14 @@
       <c r="C66" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>83</v>
       </c>
@@ -2625,8 +2853,9 @@
         <v>323</v>
       </c>
       <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>84</v>
       </c>
@@ -2640,8 +2869,9 @@
         <v>165</v>
       </c>
       <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>85</v>
       </c>
@@ -2655,8 +2885,9 @@
         <v>324</v>
       </c>
       <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>86</v>
       </c>
@@ -2672,8 +2903,11 @@
       <c r="F70" s="6" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="G70" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>87</v>
       </c>
@@ -2687,8 +2921,9 @@
         <v>325</v>
       </c>
       <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>88</v>
       </c>
@@ -2702,8 +2937,9 @@
         <v>326</v>
       </c>
       <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>89</v>
       </c>
@@ -2713,11 +2949,14 @@
       <c r="C73" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="299.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>90</v>
       </c>
@@ -2731,8 +2970,9 @@
         <v>327</v>
       </c>
       <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>92</v>
       </c>
@@ -2746,8 +2986,9 @@
         <v>328</v>
       </c>
       <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>93</v>
       </c>
@@ -2760,8 +3001,11 @@
       <c r="F76" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G76" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>94</v>
       </c>
@@ -2775,8 +3019,9 @@
         <v>329</v>
       </c>
       <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>96</v>
       </c>
@@ -2786,11 +3031,14 @@
       <c r="C78" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>98</v>
       </c>
@@ -2807,8 +3055,9 @@
         <v>330</v>
       </c>
       <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>101</v>
       </c>
@@ -2822,8 +3071,9 @@
         <v>331</v>
       </c>
       <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>102</v>
       </c>
@@ -2833,11 +3083,14 @@
       <c r="C81" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>109</v>
       </c>
@@ -2851,8 +3104,9 @@
         <v>332</v>
       </c>
       <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>113</v>
       </c>
@@ -2862,11 +3116,14 @@
       <c r="C83" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>120</v>
       </c>
@@ -2876,11 +3133,14 @@
       <c r="C84" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>127</v>
       </c>
@@ -2890,11 +3150,14 @@
       <c r="C85" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>138</v>
       </c>
@@ -2904,11 +3167,14 @@
       <c r="C86" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="234" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>139</v>
       </c>
@@ -2918,11 +3184,14 @@
       <c r="C87" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>141</v>
       </c>
@@ -2936,8 +3205,9 @@
         <v>333</v>
       </c>
       <c r="F88" s="4"/>
-    </row>
-    <row r="89" spans="1:6" ht="234" x14ac:dyDescent="0.3">
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>142</v>
       </c>
@@ -2947,11 +3217,14 @@
       <c r="C89" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>156</v>
       </c>
@@ -2961,11 +3234,14 @@
       <c r="C90" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>196</v>
       </c>
@@ -2975,11 +3251,14 @@
       <c r="C91" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>214</v>
       </c>
@@ -2993,8 +3272,9 @@
         <v>334</v>
       </c>
       <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="1:6" ht="234" x14ac:dyDescent="0.3">
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>215</v>
       </c>
@@ -3004,11 +3284,14 @@
       <c r="C93" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>361</v>
       </c>
@@ -3022,8 +3305,9 @@
         <v>335</v>
       </c>
       <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>383</v>
       </c>
@@ -3037,8 +3321,9 @@
         <v>336</v>
       </c>
       <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>430</v>
       </c>
@@ -3052,8 +3337,9 @@
         <v>337</v>
       </c>
       <c r="F96" s="4"/>
-    </row>
-    <row r="97" spans="1:6" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:7" ht="299.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>489</v>
       </c>
@@ -3070,8 +3356,9 @@
         <v>338</v>
       </c>
       <c r="F97" s="4"/>
-    </row>
-    <row r="98" spans="1:6" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="1:7" ht="189" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>721</v>
       </c>
@@ -3081,11 +3368,11 @@
       <c r="C98" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="G98" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>836</v>
       </c>
@@ -3099,8 +3386,9 @@
         <v>339</v>
       </c>
       <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:7" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>955</v>
       </c>
@@ -3114,8 +3402,9 @@
         <v>340</v>
       </c>
       <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1016</v>
       </c>
@@ -3129,8 +3418,9 @@
         <v>341</v>
       </c>
       <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="1:6" ht="234" x14ac:dyDescent="0.3">
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="1:7" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1025</v>
       </c>
@@ -3140,11 +3430,14 @@
       <c r="C102" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1036</v>
       </c>
@@ -3154,11 +3447,11 @@
       <c r="C103" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1049</v>
       </c>
@@ -3168,11 +3461,14 @@
       <c r="C104" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1058</v>
       </c>
@@ -3182,11 +3478,14 @@
       <c r="C105" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="G105" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1059</v>
       </c>
@@ -3196,11 +3495,14 @@
       <c r="C106" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1062</v>
       </c>
@@ -3214,8 +3516,9 @@
         <v>342</v>
       </c>
       <c r="F107" s="4"/>
-    </row>
-    <row r="108" spans="1:6" ht="249.6" x14ac:dyDescent="0.3">
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1068</v>
       </c>
@@ -3225,11 +3528,14 @@
       <c r="C108" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2125</v>
       </c>
@@ -3239,11 +3545,14 @@
       <c r="C109" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="G109" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2940</v>
       </c>
@@ -3260,8 +3569,9 @@
         <v>343</v>
       </c>
       <c r="F110" s="4"/>
-    </row>
-    <row r="111" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:7" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2944</v>
       </c>
@@ -3278,8 +3588,9 @@
         <v>344</v>
       </c>
       <c r="F111" s="4"/>
-    </row>
-    <row r="112" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>3032</v>
       </c>
@@ -3296,8 +3607,9 @@
         <v>345</v>
       </c>
       <c r="F112" s="4"/>
-    </row>
-    <row r="113" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>3037</v>
       </c>
@@ -3307,11 +3619,14 @@
       <c r="C113" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="F113" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G113" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>3053</v>
       </c>
@@ -3321,11 +3636,14 @@
       <c r="C114" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="G114" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>3054</v>
       </c>
@@ -3339,8 +3657,9 @@
         <v>346</v>
       </c>
       <c r="F115" s="4"/>
-    </row>
-    <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>3056</v>
       </c>
@@ -3350,13 +3669,24 @@
       <c r="C116" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F116" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G116">
+  <autoFilter ref="A1:H116" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H116">
     <sortCondition ref="A1:A116"/>
   </sortState>
   <hyperlinks>
@@ -3409,7 +3739,7 @@
     <hyperlink ref="E72" r:id="rId47" xr:uid="{B6653391-ACA1-49A5-B4A7-0383B0336B36}"/>
     <hyperlink ref="E74" r:id="rId48" display="https://d1wqtxts1xzle7.cloudfront.net/76581555/leiseth-dissertation-casestudy-libre.pdf?1639702028=&amp;response-content-disposition=inline%3B+filename%3DA_Case_Study_of_the_Four_Day_School_Week.pdf&amp;Expires=1696263512&amp;Signature=hGKySDEAGKOsIIaZyv~jGegipmWfQe51vkNtqAkEijc5Le6wmZwI~pwx1w1njd076aCjiYqZhHrmNsQ7BNuU81HhI8-eGwFOb2Q-mgRsKIKx5WPwl9jk7eiWep~IVNYy3lPFNouf59MoXseumgqx~sq2ylP7~w5S3KhRlDwtiPKnld4578sXnY2g9CK09fJZ6h6GWgUOgfRlgp~uDyUutmpN-U-lA3iJwvEuwdWMWsjqj~PnGIMxWsWyhLdINow2XDkIpemDpxgxOpBjZPnFH1qk0w9rhYYmk4vNEpwB6yQSW-4WjHmnUYXnG806sb1SSLvTwt-NkHPbgbGBmma0rA__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{22910DB3-7BB1-4EA3-BFA9-B800FCDC40CB}"/>
     <hyperlink ref="E75" r:id="rId49" xr:uid="{B93D594A-EBBD-435A-ABC8-033AA4A45C28}"/>
-    <hyperlink ref="F76" r:id="rId50" xr:uid="{EE0BFC8C-3D01-42C2-BAEB-B237BABF1A69}"/>
+    <hyperlink ref="G76" r:id="rId50" xr:uid="{EE0BFC8C-3D01-42C2-BAEB-B237BABF1A69}"/>
     <hyperlink ref="E77" r:id="rId51" xr:uid="{3F6F9499-A97E-4D52-B3A3-0FC835000504}"/>
     <hyperlink ref="E79" r:id="rId52" xr:uid="{29055D43-0525-4622-B58C-20DC934FBDC6}"/>
     <hyperlink ref="E80" r:id="rId53" xr:uid="{9809B794-EB38-4209-AEE7-7CD866741154}"/>
@@ -3428,50 +3758,90 @@
     <hyperlink ref="E111" r:id="rId66" xr:uid="{1BD26E75-488F-4E14-868C-15F5076003C8}"/>
     <hyperlink ref="E112" r:id="rId67" xr:uid="{82B04AC4-0EEA-4F80-9B1C-210DE51E94D2}"/>
     <hyperlink ref="E115" r:id="rId68" xr:uid="{AAA3C322-12A9-4415-922C-74D81FBD97D0}"/>
-    <hyperlink ref="F35" r:id="rId69" xr:uid="{37DEB6BB-AE21-4D65-82EC-6C9DBF9BF72E}"/>
-    <hyperlink ref="F47" r:id="rId70" xr:uid="{9CB66888-A383-4365-8DD1-455302DF0674}"/>
-    <hyperlink ref="F19" r:id="rId71" xr:uid="{711B05F0-8104-4514-A551-999C459B0406}"/>
-    <hyperlink ref="F20" r:id="rId72" xr:uid="{86C3D1CA-AFBE-4DEA-B627-F3EE69FC817E}"/>
-    <hyperlink ref="F23" r:id="rId73" xr:uid="{25A09BFF-36CF-4D51-A291-6A60A992586B}"/>
-    <hyperlink ref="F10" r:id="rId74" xr:uid="{DB27E19D-8146-406B-B6BF-26A5F14B3B99}"/>
-    <hyperlink ref="F33" r:id="rId75" xr:uid="{E07246F3-7066-4F69-A65F-98254F580ED2}"/>
-    <hyperlink ref="F32" r:id="rId76" xr:uid="{897C07DD-A940-4F52-BC65-355F4C7ED66F}"/>
-    <hyperlink ref="F66" r:id="rId77" xr:uid="{E00F78D5-8C8F-4AC0-A5D3-3FB528B3DEDC}"/>
-    <hyperlink ref="F70" r:id="rId78" xr:uid="{A052380E-5C98-42C1-A932-5875FDD6FE6B}"/>
-    <hyperlink ref="F73" r:id="rId79" xr:uid="{D5AD41E6-31BC-4E7C-B124-CA962E91B529}"/>
-    <hyperlink ref="F78" r:id="rId80" xr:uid="{1B103026-3767-4018-A1DF-7926BB7E5E25}"/>
+    <hyperlink ref="G35" r:id="rId69" xr:uid="{37DEB6BB-AE21-4D65-82EC-6C9DBF9BF72E}"/>
+    <hyperlink ref="G47" r:id="rId70" xr:uid="{9CB66888-A383-4365-8DD1-455302DF0674}"/>
+    <hyperlink ref="G19" r:id="rId71" xr:uid="{711B05F0-8104-4514-A551-999C459B0406}"/>
+    <hyperlink ref="G20" r:id="rId72" xr:uid="{86C3D1CA-AFBE-4DEA-B627-F3EE69FC817E}"/>
+    <hyperlink ref="G23" r:id="rId73" xr:uid="{25A09BFF-36CF-4D51-A291-6A60A992586B}"/>
+    <hyperlink ref="G10" r:id="rId74" xr:uid="{DB27E19D-8146-406B-B6BF-26A5F14B3B99}"/>
+    <hyperlink ref="G33" r:id="rId75" xr:uid="{E07246F3-7066-4F69-A65F-98254F580ED2}"/>
+    <hyperlink ref="G32" r:id="rId76" xr:uid="{897C07DD-A940-4F52-BC65-355F4C7ED66F}"/>
+    <hyperlink ref="G66" r:id="rId77" xr:uid="{E00F78D5-8C8F-4AC0-A5D3-3FB528B3DEDC}"/>
+    <hyperlink ref="G70" r:id="rId78" xr:uid="{A052380E-5C98-42C1-A932-5875FDD6FE6B}"/>
+    <hyperlink ref="G73" r:id="rId79" xr:uid="{D5AD41E6-31BC-4E7C-B124-CA962E91B529}"/>
+    <hyperlink ref="G78" r:id="rId80" xr:uid="{1B103026-3767-4018-A1DF-7926BB7E5E25}"/>
     <hyperlink ref="E64" r:id="rId81" xr:uid="{6FBC4659-CC58-4CDB-A278-79E1B49004ED}"/>
-    <hyperlink ref="F114" r:id="rId82" xr:uid="{46369FA8-2E83-4232-8E12-11FB6447F57B}"/>
-    <hyperlink ref="F113" r:id="rId83" xr:uid="{0C747466-E2A8-4064-9664-38F8692D95BE}"/>
-    <hyperlink ref="F52" r:id="rId84" xr:uid="{79A57BCB-B8A3-42ED-81D1-697677848967}"/>
-    <hyperlink ref="F50" r:id="rId85" xr:uid="{103E2B00-BE99-4D64-A40E-B74E114EFDDE}"/>
-    <hyperlink ref="F34" r:id="rId86" xr:uid="{CB043E3A-3A12-403C-A0EE-125259BC7972}"/>
-    <hyperlink ref="F6" r:id="rId87" xr:uid="{241256EE-D80C-425A-9E44-65827416D99C}"/>
+    <hyperlink ref="G114" r:id="rId82" xr:uid="{46369FA8-2E83-4232-8E12-11FB6447F57B}"/>
+    <hyperlink ref="G113" r:id="rId83" xr:uid="{0C747466-E2A8-4064-9664-38F8692D95BE}"/>
+    <hyperlink ref="G52" r:id="rId84" xr:uid="{79A57BCB-B8A3-42ED-81D1-697677848967}"/>
+    <hyperlink ref="G50" r:id="rId85" xr:uid="{103E2B00-BE99-4D64-A40E-B74E114EFDDE}"/>
+    <hyperlink ref="G34" r:id="rId86" xr:uid="{CB043E3A-3A12-403C-A0EE-125259BC7972}"/>
+    <hyperlink ref="G6" r:id="rId87" xr:uid="{241256EE-D80C-425A-9E44-65827416D99C}"/>
     <hyperlink ref="E27" r:id="rId88" xr:uid="{1E13DD51-B7EB-4EFC-A0A9-D847FE9069E7}"/>
-    <hyperlink ref="F55" r:id="rId89" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Impact+of+a+Four-Day+School+Week+on+Student+Discipline+and+Attendance+in+Missouri%3A+A+Quantitative+Study&amp;issn=&amp;date=2021-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Rowden%2C+Angelina&amp;isbn=9798492723514&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{38DBFA6E-C515-4D3D-87CC-444C2A425398}"/>
-    <hyperlink ref="F81" r:id="rId90" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Scheduling+adolescent+achievement%3A+Eighth-graders+and+the+four-day+school+week&amp;issn=&amp;date=2016-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Hegwood%2C+Jessica+Fleming&amp;isbn=978-1-369-48263-8&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{0613F951-D1AE-4EC3-9833-FA8C4694221E}"/>
-    <hyperlink ref="F83" r:id="rId91" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Elementary+Teachers%27+Perceptions+of+Appropriate+Collaborative+Planning+and+Professional+Planning+Time%3A+A+Case+Study&amp;issn=&amp;date=2017-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Wise%2C+Kristi&amp;isbn=978-0-355-10267-3&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{14A9FBBA-105C-4B03-9ABF-4E2F2F55564C}"/>
-    <hyperlink ref="F84" r:id="rId92" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=How+Teachers+Feel+Missouri+School+Schedules+Affect+Teachers+Morale%3A+A+Qualitative+Descriptive+Case+Study&amp;issn=&amp;date=2021-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Smith%2C+Tanya&amp;isbn=979-8-209-99102-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{D4DF9A4B-640B-439E-8775-F74D9F97A2DC}"/>
-    <hyperlink ref="F85" r:id="rId93" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=The+four-day+school+calendar%3A+A+comparative+study+of+student+performance+indicators+in+a+Colorado+school+district&amp;issn=&amp;date=2014-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Reeves%2C+Cheryl+L.&amp;isbn=978-1-303-87204-4&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{5226B787-9144-4A5E-9FBA-10DA9A3B75F6}"/>
-    <hyperlink ref="F87" r:id="rId94" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=The+effect+of+widespread+teacher+furlough+implementation+on+student+performance+on+the+reading%2C+mathematics%2C+and+science+portions+of+the+Hawaiii+State+Assessment&amp;issn=&amp;date=2014-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Lemmer%2C+Bridina+Marie&amp;isbn=978-1-321-05010-3&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{A5E16556-D2D1-4118-90B8-1FEC9124EC80}"/>
-    <hyperlink ref="F89" r:id="rId95" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Explorations+of+Student+and+Parent+Perceptions+of+Changes+in+Traditional+School+Schedule+and+Curriculum+to+Enhance+Competitiveness+with+Charter+Schools&amp;issn=&amp;date=2010-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Kelly%2C+Tiffany+K.&amp;isbn=978-1-124-37958-6&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{A20ED369-9206-4906-B16F-133E337B24F8}"/>
-    <hyperlink ref="F61" r:id="rId96" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Multicase+Exploration+of+Teachers%E2%80%99+Perceptions+of+Experience+of+Working+in+a+4-Day+Work+Week+School+System+Compared+to+a+5-Day+Work+Week+School+System&amp;issn=&amp;date=2020-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Reyes%2C+Lyscelle+M.&amp;isbn=9798698539339&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{19366349-0389-4EB5-BFAA-5FC19CEFC271}"/>
-    <hyperlink ref="F102" r:id="rId97" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=A+COMPARATIVE+CASE+STUDY+OF+THREE+MINNESOTA+SCHOOL+DISTRICTS+EMPLOYING+THE+FOUR-DAY-WEEK+DURING+1982-1983&amp;issn=&amp;date=1985-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=GUSHWA%2C+PRUDENCE+JOANNE&amp;isbn=979-8-205-15586-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{22F43609-39E4-4E93-A3FE-7092A4189348}"/>
-    <hyperlink ref="F91" r:id="rId98" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=A+Quasi-Experimental+Study+Comparing+Work-Life+Balance+and+Turnover+Intentions+Among+Rural+Oklahoma+Classroom+Teachers+Working+Four-Day+and+Five-Day+School+Weeks&amp;issn=&amp;date=2023-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Farber%2C+Misty+Dawn&amp;isbn=9798379420468&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{F99BA589-6518-4F6C-8F80-7D891CE3643F}"/>
-    <hyperlink ref="F93" r:id="rId99" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=The+Four-Day+School+Week+as+a+Path+for+Principal+Attraction+and+Retention%3A+Perceptions+of+Elementary+Principals+in+Missouri&amp;issn=&amp;date=2022-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Weber%2C+Laura+Elizabeth&amp;isbn=9798371990358&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{080115B2-EE11-4BBB-9C85-4C7B4A1AB587}"/>
-    <hyperlink ref="F25" r:id="rId100" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Can+the+4-day+school+week+work%3A+An+analysis+of+the+impact+of+the+4-day+school+week+on+a+rural+Georgia+school+district&amp;issn=&amp;date=2011-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Bell%2C+Jeffrey+L.&amp;isbn=978-1-124-72727-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{6C849674-A5F1-4DB7-97F2-46FD9340B54D}"/>
-    <hyperlink ref="F53" r:id="rId101" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=A+Case+Study+of+the+Influence+of+the+Four-Day+School+Week+on+an+Arizona+School+District&amp;issn=&amp;date=2018-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Savage%2C+Rachel+Marie&amp;isbn=978-0-355-82962-4&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{B6C75ECC-C9F1-43F9-B04E-41908ACC4FFD}"/>
-    <hyperlink ref="F51" r:id="rId102" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Impact+of+a+Four-Day+School+Week+on+Teacher+Preparation&amp;issn=&amp;date=2019-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Schultz%2C+Shawn+C.&amp;isbn=9798662399600&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{0ADED006-B3E9-4FB5-8E8A-C756268CB195}"/>
-    <hyperlink ref="F90" r:id="rId103" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Students%27+Scores+and+Attendance%3A+A+Study+of+South+Dakota+Schools+with+Four-Day+Schedules&amp;issn=&amp;date=2018-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Dolezal%2C+Dennis+W.&amp;isbn=978-0-355-97001-2&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{1543DFBB-C869-4A54-8C15-B482BC5DB0EA}"/>
-    <hyperlink ref="F105" r:id="rId104" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:book&amp;genre=report&amp;sid=ProQ:ProQ%3Aeric&amp;atitle=&amp;title=Colorado%27s+Alternative+School+Calendar+Program+and+the+Four+Day+Week&amp;issn=&amp;date=1982-01-01&amp;volume=&amp;issue=&amp;spage=1&amp;au=Brubacher%2C+Roy+G.%3BStiverson%2C+C.+L.&amp;isbn=&amp;jtitle=&amp;btitle=Colorado%27s+Alternative+School+Calendar+Program+and+the+Four+Day+Week&amp;rft_id=info:eric/ED214719&amp;rft_id=info:doi/" xr:uid="{6F06FFCC-824A-40D9-A384-F16940E98EDB}"/>
-    <hyperlink ref="F109" r:id="rId105" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;genre=article&amp;sid=ProQ:ProQ%3Aeric&amp;atitle=Changing+the+School+Calendar+to+Effect+Energy+Savings&amp;title=School+Business+Affairs&amp;issn=&amp;date=1980-01-01&amp;volume=46&amp;issue=1&amp;spage=11&amp;au=Webb%2C+L.+Dean%3BAshby%2C+Glenn+H.&amp;isbn=&amp;jtitle=School+Business+Affairs&amp;btitle=&amp;rft_id=info:eric/EJ214271&amp;rft_id=info:doi/" xr:uid="{1DBAFCB4-F00A-416F-88E4-8973143D463B}"/>
-    <hyperlink ref="F98" r:id="rId106" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=Investigation+of+the+four-day+school+week&amp;issn=&amp;date=2010-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Bronson%2C+Elizabeth+L.&amp;isbn=979-8-209-73276-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{5DDB6C57-84FC-4BC3-AB9B-5533118D109F}"/>
-    <hyperlink ref="F12" r:id="rId107" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=The+four-day+school+week%3A+Teacher+perceptions+in+a+rural%2Fsecondary+setting&amp;issn=&amp;date=2013-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Farris%2C+Brandon&amp;isbn=978-1-303-13374-9&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{C7A612FE-CED7-4984-B813-1D91DF15C00F}"/>
-    <hyperlink ref="F116" r:id="rId108" xr:uid="{C3FFAE78-7C53-4025-9DF8-CAB3F0011CBB}"/>
+    <hyperlink ref="G55" r:id="rId89" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Impact+of+a+Four-Day+School+Week+on+Student+Discipline+and+Attendance+in+Missouri%3A+A+Quantitative+Study&amp;issn=&amp;date=2021-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Rowden%2C+Angelina&amp;isbn=9798492723514&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{38DBFA6E-C515-4D3D-87CC-444C2A425398}"/>
+    <hyperlink ref="G81" r:id="rId90" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Scheduling+adolescent+achievement%3A+Eighth-graders+and+the+four-day+school+week&amp;issn=&amp;date=2016-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Hegwood%2C+Jessica+Fleming&amp;isbn=978-1-369-48263-8&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{0613F951-D1AE-4EC3-9833-FA8C4694221E}"/>
+    <hyperlink ref="G83" r:id="rId91" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Elementary+Teachers%27+Perceptions+of+Appropriate+Collaborative+Planning+and+Professional+Planning+Time%3A+A+Case+Study&amp;issn=&amp;date=2017-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Wise%2C+Kristi&amp;isbn=978-0-355-10267-3&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{14A9FBBA-105C-4B03-9ABF-4E2F2F55564C}"/>
+    <hyperlink ref="G84" r:id="rId92" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=How+Teachers+Feel+Missouri+School+Schedules+Affect+Teachers+Morale%3A+A+Qualitative+Descriptive+Case+Study&amp;issn=&amp;date=2021-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Smith%2C+Tanya&amp;isbn=979-8-209-99102-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{D4DF9A4B-640B-439E-8775-F74D9F97A2DC}"/>
+    <hyperlink ref="G85" r:id="rId93" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=The+four-day+school+calendar%3A+A+comparative+study+of+student+performance+indicators+in+a+Colorado+school+district&amp;issn=&amp;date=2014-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Reeves%2C+Cheryl+L.&amp;isbn=978-1-303-87204-4&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{5226B787-9144-4A5E-9FBA-10DA9A3B75F6}"/>
+    <hyperlink ref="G87" r:id="rId94" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=The+effect+of+widespread+teacher+furlough+implementation+on+student+performance+on+the+reading%2C+mathematics%2C+and+science+portions+of+the+Hawaiii+State+Assessment&amp;issn=&amp;date=2014-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Lemmer%2C+Bridina+Marie&amp;isbn=978-1-321-05010-3&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{A5E16556-D2D1-4118-90B8-1FEC9124EC80}"/>
+    <hyperlink ref="G89" r:id="rId95" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Explorations+of+Student+and+Parent+Perceptions+of+Changes+in+Traditional+School+Schedule+and+Curriculum+to+Enhance+Competitiveness+with+Charter+Schools&amp;issn=&amp;date=2010-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Kelly%2C+Tiffany+K.&amp;isbn=978-1-124-37958-6&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{A20ED369-9206-4906-B16F-133E337B24F8}"/>
+    <hyperlink ref="G61" r:id="rId96" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Multicase+Exploration+of+Teachers%E2%80%99+Perceptions+of+Experience+of+Working+in+a+4-Day+Work+Week+School+System+Compared+to+a+5-Day+Work+Week+School+System&amp;issn=&amp;date=2020-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Reyes%2C+Lyscelle+M.&amp;isbn=9798698539339&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{19366349-0389-4EB5-BFAA-5FC19CEFC271}"/>
+    <hyperlink ref="G102" r:id="rId97" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=A+COMPARATIVE+CASE+STUDY+OF+THREE+MINNESOTA+SCHOOL+DISTRICTS+EMPLOYING+THE+FOUR-DAY-WEEK+DURING+1982-1983&amp;issn=&amp;date=1985-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=GUSHWA%2C+PRUDENCE+JOANNE&amp;isbn=979-8-205-15586-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{22F43609-39E4-4E93-A3FE-7092A4189348}"/>
+    <hyperlink ref="G91" r:id="rId98" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=A+Quasi-Experimental+Study+Comparing+Work-Life+Balance+and+Turnover+Intentions+Among+Rural+Oklahoma+Classroom+Teachers+Working+Four-Day+and+Five-Day+School+Weeks&amp;issn=&amp;date=2023-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Farber%2C+Misty+Dawn&amp;isbn=9798379420468&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{F99BA589-6518-4F6C-8F80-7D891CE3643F}"/>
+    <hyperlink ref="G93" r:id="rId99" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=The+Four-Day+School+Week+as+a+Path+for+Principal+Attraction+and+Retention%3A+Perceptions+of+Elementary+Principals+in+Missouri&amp;issn=&amp;date=2022-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Weber%2C+Laura+Elizabeth&amp;isbn=9798371990358&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{080115B2-EE11-4BBB-9C85-4C7B4A1AB587}"/>
+    <hyperlink ref="G25" r:id="rId100" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Can+the+4-day+school+week+work%3A+An+analysis+of+the+impact+of+the+4-day+school+week+on+a+rural+Georgia+school+district&amp;issn=&amp;date=2011-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Bell%2C+Jeffrey+L.&amp;isbn=978-1-124-72727-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{6C849674-A5F1-4DB7-97F2-46FD9340B54D}"/>
+    <hyperlink ref="G53" r:id="rId101" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=A+Case+Study+of+the+Influence+of+the+Four-Day+School+Week+on+an+Arizona+School+District&amp;issn=&amp;date=2018-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Savage%2C+Rachel+Marie&amp;isbn=978-0-355-82962-4&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{B6C75ECC-C9F1-43F9-B04E-41908ACC4FFD}"/>
+    <hyperlink ref="G51" r:id="rId102" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Impact+of+a+Four-Day+School+Week+on+Teacher+Preparation&amp;issn=&amp;date=2019-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Schultz%2C+Shawn+C.&amp;isbn=9798662399600&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{0ADED006-B3E9-4FB5-8E8A-C756268CB195}"/>
+    <hyperlink ref="G90" r:id="rId103" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Students%27+Scores+and+Attendance%3A+A+Study+of+South+Dakota+Schools+with+Four-Day+Schedules&amp;issn=&amp;date=2018-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Dolezal%2C+Dennis+W.&amp;isbn=978-0-355-97001-2&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{1543DFBB-C869-4A54-8C15-B482BC5DB0EA}"/>
+    <hyperlink ref="G105" r:id="rId104" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:book&amp;genre=report&amp;sid=ProQ:ProQ%3Aeric&amp;atitle=&amp;title=Colorado%27s+Alternative+School+Calendar+Program+and+the+Four+Day+Week&amp;issn=&amp;date=1982-01-01&amp;volume=&amp;issue=&amp;spage=1&amp;au=Brubacher%2C+Roy+G.%3BStiverson%2C+C.+L.&amp;isbn=&amp;jtitle=&amp;btitle=Colorado%27s+Alternative+School+Calendar+Program+and+the+Four+Day+Week&amp;rft_id=info:eric/ED214719&amp;rft_id=info:doi/" xr:uid="{6F06FFCC-824A-40D9-A384-F16940E98EDB}"/>
+    <hyperlink ref="G109" r:id="rId105" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;genre=article&amp;sid=ProQ:ProQ%3Aeric&amp;atitle=Changing+the+School+Calendar+to+Effect+Energy+Savings&amp;title=School+Business+Affairs&amp;issn=&amp;date=1980-01-01&amp;volume=46&amp;issue=1&amp;spage=11&amp;au=Webb%2C+L.+Dean%3BAshby%2C+Glenn+H.&amp;isbn=&amp;jtitle=School+Business+Affairs&amp;btitle=&amp;rft_id=info:eric/EJ214271&amp;rft_id=info:doi/" xr:uid="{1DBAFCB4-F00A-416F-88E4-8973143D463B}"/>
+    <hyperlink ref="G98" r:id="rId106" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=Investigation+of+the+four-day+school+week&amp;issn=&amp;date=2010-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Bronson%2C+Elizabeth+L.&amp;isbn=979-8-209-73276-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{5DDB6C57-84FC-4BC3-AB9B-5533118D109F}"/>
+    <hyperlink ref="G12" r:id="rId107" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=The+four-day+school+week%3A+Teacher+perceptions+in+a+rural%2Fsecondary+setting&amp;issn=&amp;date=2013-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Farris%2C+Brandon&amp;isbn=978-1-303-13374-9&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{C7A612FE-CED7-4984-B813-1D91DF15C00F}"/>
+    <hyperlink ref="G116" r:id="rId108" xr:uid="{C3FFAE78-7C53-4025-9DF8-CAB3F0011CBB}"/>
     <hyperlink ref="E2" r:id="rId109" xr:uid="{09C3CA8A-8BC2-4AD9-B08C-84D514554E65}"/>
     <hyperlink ref="E42" r:id="rId110" xr:uid="{BF57E8F0-8379-4844-A2C0-F3339AC66230}"/>
+    <hyperlink ref="F6" r:id="rId111" xr:uid="{4F06BD45-FC94-4C44-A215-69F3313C6F3F}"/>
+    <hyperlink ref="F10" r:id="rId112" xr:uid="{A13FFFD4-5A08-4BF7-BA9B-D46FA8324C1C}"/>
+    <hyperlink ref="F12" r:id="rId113" xr:uid="{1BF1EA1D-43D8-476D-8BAF-0D9476A35A08}"/>
+    <hyperlink ref="F19" r:id="rId114" xr:uid="{B23139D9-52FE-4A2D-B41C-6AEDA6C1E6BB}"/>
+    <hyperlink ref="F20" r:id="rId115" xr:uid="{945210BB-F866-4ADB-B638-6CA4F832B0A6}"/>
+    <hyperlink ref="F23" r:id="rId116" xr:uid="{08E25523-8C97-448B-96F4-B0C84E945DB7}"/>
+    <hyperlink ref="F25" r:id="rId117" xr:uid="{E4C74050-943A-4348-9344-B6692C96A745}"/>
+    <hyperlink ref="F32" r:id="rId118" xr:uid="{8176D4E4-9132-4B81-BBAA-7682A6369A8A}"/>
+    <hyperlink ref="F33" r:id="rId119" xr:uid="{BF655D2B-D90F-4CB4-A602-0C3C518CC049}"/>
+    <hyperlink ref="F34" r:id="rId120" xr:uid="{CA051A34-095E-4232-B04F-8E9FF78F8FE5}"/>
+    <hyperlink ref="F35" r:id="rId121" xr:uid="{F5230DC4-5181-4EB6-A3C4-09AFB5DEDCD6}"/>
+    <hyperlink ref="F47" r:id="rId122" xr:uid="{2FEE8DB8-1DBA-4D3F-B942-CDE6B8201DBA}"/>
+    <hyperlink ref="F50" r:id="rId123" xr:uid="{F9A71C84-339F-4332-883A-793A5279F7CF}"/>
+    <hyperlink ref="F51" r:id="rId124" xr:uid="{BF86D58D-72F4-481D-A118-3FAE08817096}"/>
+    <hyperlink ref="F52" r:id="rId125" xr:uid="{4BADF725-C66D-4D78-84F0-A9EE68A26A48}"/>
+    <hyperlink ref="F53" r:id="rId126" xr:uid="{BF05181B-FB72-4F6A-B925-22E06EEBD076}"/>
+    <hyperlink ref="F55" r:id="rId127" xr:uid="{705B1C43-7E31-4BA1-BB6F-E8685A0EE2F0}"/>
+    <hyperlink ref="F61" r:id="rId128" xr:uid="{CCF265E3-CCA9-42AB-9B7F-81CDEFA6EEF8}"/>
+    <hyperlink ref="F66" r:id="rId129" xr:uid="{E1FFC591-19EE-4544-AFA9-924519B5BF99}"/>
+    <hyperlink ref="F73" r:id="rId130" xr:uid="{36E27D57-9C63-402F-8E64-8024AC058ED1}"/>
+    <hyperlink ref="F78" r:id="rId131" xr:uid="{07F18462-9A49-4180-BEE3-0281D972C730}"/>
+    <hyperlink ref="F81" r:id="rId132" xr:uid="{A0D54C38-835C-4D1F-AE02-D99B437C012F}"/>
+    <hyperlink ref="F83" r:id="rId133" xr:uid="{39B94E8F-E2DB-4566-8128-B40B864B986E}"/>
+    <hyperlink ref="F84" r:id="rId134" xr:uid="{6216D95E-A97A-447F-862B-5AAE5D224416}"/>
+    <hyperlink ref="F85" r:id="rId135" xr:uid="{41EA29F7-EE20-454C-B947-A7AF3D7162E4}"/>
+    <hyperlink ref="F86" r:id="rId136" xr:uid="{3A94B2FE-C724-451A-ADCC-C3D72A5FB4EE}"/>
+    <hyperlink ref="F87" r:id="rId137" xr:uid="{60780240-2D2C-4685-BE6A-89203B380568}"/>
+    <hyperlink ref="F89" r:id="rId138" xr:uid="{D45B915A-C954-40DF-A0FF-1152A3B84023}"/>
+    <hyperlink ref="F90" r:id="rId139" xr:uid="{C77F15D2-726D-433F-BAF7-CE4CCD116903}"/>
+    <hyperlink ref="F91" r:id="rId140" xr:uid="{9D25038C-F4D4-4FD0-8160-1AAD13372298}"/>
+    <hyperlink ref="F93" r:id="rId141" xr:uid="{11CCE9AF-DAC5-44EF-9920-589EE9E7863D}"/>
+    <hyperlink ref="F102" r:id="rId142" xr:uid="{D31E20F5-4B75-4041-8DA2-D1FBA96AFB6C}"/>
+    <hyperlink ref="F104" r:id="rId143" xr:uid="{08CF1871-018A-4D45-BBB2-CD5BFCAD5628}"/>
+    <hyperlink ref="F105" r:id="rId144" xr:uid="{26B7E05D-A764-4710-B36A-AD05D2A0DDAA}"/>
+    <hyperlink ref="F106" r:id="rId145" xr:uid="{EFF9E1F9-8DFE-49D8-AA5A-6DD34881E8D5}"/>
+    <hyperlink ref="F108" r:id="rId146" xr:uid="{0FF6572C-698B-49CB-9D39-458AF086C282}"/>
+    <hyperlink ref="F109" r:id="rId147" xr:uid="{3BE7CB94-374E-45F5-9A01-14E192831D5C}"/>
+    <hyperlink ref="F114" r:id="rId148" xr:uid="{3C77CA3E-8C16-4B1F-82CE-3BCB2977324B}"/>
+    <hyperlink ref="F76" r:id="rId149" xr:uid="{68ADB003-7AA3-4AFE-B6F8-DEAF9C96BB13}"/>
+    <hyperlink ref="F70" r:id="rId150" xr:uid="{37D06BD9-FF5F-45E4-B8D7-E515784C5BD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId111"/>
+  <pageSetup orientation="portrait" r:id="rId151"/>
 </worksheet>
 </file>
--- a/data/4dsw_eligible_citations_links.xlsx
+++ b/data/4dsw_eligible_citations_links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoregon-my.sharepoint.com/personal/strevino_uoregon_edu/Documents/Desktop/HEDCO Institute/GitHub R Projects/4DSW_Scoping_Review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="554" documentId="8_{DD2EE4A3-A625-40AE-A745-58941D767F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A372B5-6F5B-4369-91E7-56FFA08426FF}"/>
+  <xr:revisionPtr revIDLastSave="559" documentId="8_{DD2EE4A3-A625-40AE-A745-58941D767F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC4832FE-0F1B-480D-85F1-4546CA8CE809}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1058,9 +1058,6 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8186494/</t>
-  </si>
-  <si>
-    <t>https://scholarworks.montana.edu/xmlui/bitstream/handle/1/17752/thompson-school-2023.pdf?sequence=1</t>
   </si>
   <si>
     <t>http://www.buenabands.org/4-day/dissertations/hale-disseration-SD-casestudy.pdf</t>
@@ -1274,6 +1271,9 @@
   </si>
   <si>
     <t>https://www.proquest.com/pqdtglobal/docview/1822202940/5BC179095E9B4B50PQ/</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0885200622001387</t>
   </si>
 </sst>
 </file>
@@ -1378,9 +1378,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1418,7 +1418,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1524,7 +1524,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1666,7 +1666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1674,12 +1674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1708,19 +1707,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1736,7 +1735,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1752,7 +1751,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1768,7 +1767,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1784,7 +1783,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1796,14 +1795,14 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1819,7 +1818,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1835,7 +1834,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -1854,7 +1853,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1865,14 +1864,14 @@
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1888,7 +1887,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -1899,14 +1898,14 @@
         <v>26</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -1922,7 +1921,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1938,7 +1937,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -1954,7 +1953,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>19</v>
       </c>
@@ -1970,7 +1969,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -1986,7 +1985,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -2002,7 +2001,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>22</v>
       </c>
@@ -2013,14 +2012,14 @@
         <v>41</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>23</v>
       </c>
@@ -2031,14 +2030,14 @@
         <v>43</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -2055,7 +2054,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>27</v>
       </c>
@@ -2071,7 +2070,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>28</v>
       </c>
@@ -2082,14 +2081,14 @@
         <v>49</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>29</v>
       </c>
@@ -2105,7 +2104,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>30</v>
       </c>
@@ -2116,14 +2115,14 @@
         <v>53</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>31</v>
       </c>
@@ -2139,7 +2138,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>33</v>
       </c>
@@ -2153,12 +2152,12 @@
         <v>59</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F27" s="6"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>35</v>
       </c>
@@ -2174,7 +2173,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>36</v>
       </c>
@@ -2193,7 +2192,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37</v>
       </c>
@@ -2209,7 +2208,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>38</v>
       </c>
@@ -2225,7 +2224,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>39</v>
       </c>
@@ -2236,14 +2235,14 @@
         <v>72</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40</v>
       </c>
@@ -2254,14 +2253,14 @@
         <v>74</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42</v>
       </c>
@@ -2272,14 +2271,14 @@
         <v>76</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43</v>
       </c>
@@ -2290,14 +2289,14 @@
         <v>78</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45</v>
       </c>
@@ -2313,7 +2312,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>46</v>
       </c>
@@ -2332,7 +2331,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>47</v>
       </c>
@@ -2351,7 +2350,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>48</v>
       </c>
@@ -2370,7 +2369,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>49</v>
       </c>
@@ -2389,7 +2388,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -2408,7 +2407,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -2426,7 +2425,7 @@
       </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>53</v>
       </c>
@@ -2445,7 +2444,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>54</v>
       </c>
@@ -2464,7 +2463,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>56</v>
       </c>
@@ -2480,7 +2479,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>57</v>
       </c>
@@ -2496,7 +2495,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>59</v>
       </c>
@@ -2507,14 +2506,14 @@
         <v>113</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>60</v>
       </c>
@@ -2530,7 +2529,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>61</v>
       </c>
@@ -2546,7 +2545,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>62</v>
       </c>
@@ -2557,14 +2556,14 @@
         <v>120</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>63</v>
       </c>
@@ -2575,14 +2574,14 @@
         <v>122</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>123</v>
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>64</v>
       </c>
@@ -2593,14 +2592,14 @@
         <v>125</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>65</v>
       </c>
@@ -2611,14 +2610,14 @@
         <v>127</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>128</v>
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>66</v>
       </c>
@@ -2634,7 +2633,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="189" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>68</v>
       </c>
@@ -2645,14 +2644,14 @@
         <v>132</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>133</v>
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>69</v>
       </c>
@@ -2668,7 +2667,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>70</v>
       </c>
@@ -2684,7 +2683,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>72</v>
       </c>
@@ -2700,7 +2699,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>73</v>
       </c>
@@ -2716,7 +2715,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>75</v>
       </c>
@@ -2732,7 +2731,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:8" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>76</v>
       </c>
@@ -2743,13 +2742,13 @@
         <v>146</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>77</v>
       </c>
@@ -2768,10 +2767,10 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>78</v>
       </c>
@@ -2787,7 +2786,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>80</v>
       </c>
@@ -2801,12 +2800,12 @@
         <v>156</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>81</v>
       </c>
@@ -2822,7 +2821,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>82</v>
       </c>
@@ -2833,13 +2832,13 @@
         <v>160</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>83</v>
       </c>
@@ -2855,7 +2854,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>84</v>
       </c>
@@ -2871,7 +2870,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>85</v>
       </c>
@@ -2901,13 +2900,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>87</v>
       </c>
@@ -2923,7 +2922,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>88</v>
       </c>
@@ -2939,7 +2938,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>89</v>
       </c>
@@ -2950,13 +2949,13 @@
         <v>176</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="299.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>90</v>
       </c>
@@ -2972,7 +2971,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>92</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>94</v>
       </c>
@@ -3021,7 +3020,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>96</v>
       </c>
@@ -3032,13 +3031,13 @@
         <v>187</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>98</v>
       </c>
@@ -3057,7 +3056,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>101</v>
       </c>
@@ -3073,7 +3072,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" ht="189" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="189" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>102</v>
       </c>
@@ -3084,13 +3083,13 @@
         <v>194</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>109</v>
       </c>
@@ -3106,7 +3105,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>113</v>
       </c>
@@ -3117,13 +3116,13 @@
         <v>199</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>120</v>
       </c>
@@ -3134,13 +3133,13 @@
         <v>202</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>127</v>
       </c>
@@ -3151,13 +3150,13 @@
         <v>205</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>138</v>
       </c>
@@ -3168,13 +3167,13 @@
         <v>208</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>139</v>
       </c>
@@ -3185,13 +3184,13 @@
         <v>211</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>141</v>
       </c>
@@ -3207,7 +3206,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>142</v>
       </c>
@@ -3218,13 +3217,13 @@
         <v>216</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>156</v>
       </c>
@@ -3235,13 +3234,13 @@
         <v>219</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>196</v>
       </c>
@@ -3252,13 +3251,13 @@
         <v>222</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>214</v>
       </c>
@@ -3274,7 +3273,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>215</v>
       </c>
@@ -3285,13 +3284,13 @@
         <v>227</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>361</v>
       </c>
@@ -3307,7 +3306,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>383</v>
       </c>
@@ -3323,7 +3322,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>430</v>
       </c>
@@ -3339,7 +3338,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" ht="299.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>489</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>836</v>
       </c>
@@ -3388,7 +3387,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>955</v>
       </c>
@@ -3404,7 +3403,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1016</v>
       </c>
@@ -3420,7 +3419,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1025</v>
       </c>
@@ -3431,7 +3430,7 @@
         <v>248</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>249</v>
@@ -3451,7 +3450,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1049</v>
       </c>
@@ -3462,13 +3461,13 @@
         <v>254</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1058</v>
       </c>
@@ -3479,13 +3478,13 @@
         <v>257</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1059</v>
       </c>
@@ -3496,13 +3495,13 @@
         <v>260</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1062</v>
       </c>
@@ -3518,7 +3517,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1068</v>
       </c>
@@ -3529,13 +3528,13 @@
         <v>265</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="189" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="189" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2125</v>
       </c>
@@ -3546,13 +3545,13 @@
         <v>268</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2940</v>
       </c>
@@ -3571,7 +3570,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="1:7" ht="126" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2944</v>
       </c>
@@ -3590,7 +3589,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>3032</v>
       </c>
@@ -3604,12 +3603,12 @@
         <v>278</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>3037</v>
       </c>
@@ -3620,13 +3619,13 @@
         <v>280</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>3053</v>
       </c>
@@ -3637,13 +3636,13 @@
         <v>282</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>3054</v>
       </c>
@@ -3654,12 +3653,12 @@
         <v>284</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>3056</v>
       </c>
@@ -3670,22 +3669,15 @@
         <v>286</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H116" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H116" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H116">
     <sortCondition ref="A1:A116"/>
   </sortState>

--- a/data/4dsw_eligible_citations_links.xlsx
+++ b/data/4dsw_eligible_citations_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoregon-my.sharepoint.com/personal/strevino_uoregon_edu/Documents/Desktop/HEDCO Institute/GitHub R Projects/4DSW_Scoping_Review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="8_{DD2EE4A3-A625-40AE-A745-58941D767F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC4832FE-0F1B-480D-85F1-4546CA8CE809}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="8_{DD2EE4A3-A625-40AE-A745-58941D767F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDE7007B-AF73-4186-9E1B-1883CE2B0269}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,9 +781,6 @@
     <t>A comparative study of transporation costs for a four-day school week and a five day school week for Dougherty County schools</t>
   </si>
   <si>
-    <t>https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=A+comparative+study+of+transporation+costs+for+a+four-day+school+week+and+a+five+day+school+week+for+Dougherty+County+schools&amp;issn=&amp;date=1984-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Palmer%2C+John+D.%2C+Jr.&amp;isbn=978-1-369-36344-9&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/</t>
-  </si>
-  <si>
     <t>Charlton, Colleen A. (1983).  A Study of Colorado's Four-Day School Week Program As It Relates to Utilization of School Facilities #journal#, #volume#(#issue#),  1</t>
   </si>
   <si>
@@ -943,9 +940,6 @@
     <t>https://digitalcommons.lindenwood.edu/cgi/viewcontent.cgi?article=1694&amp;context=dissertations</t>
   </si>
   <si>
-    <t>https://scholarworks.montana.edu/xmlui/bitstream/handle/1/10115/AmysR1216.pdf?sequ</t>
-  </si>
-  <si>
     <t>https://files.eric.ed.gov/fulltext/EJ1225164.pdf</t>
   </si>
   <si>
@@ -1006,9 +1000,6 @@
     <t>https://muse.jhu.edu/pub/34/article/784649/pdf?casa_token=jof4z6ITdwYAAAAA:JG5LnbgriNNEy4bhP-axKvEj0ydm0Clzmw4ACRz_cEysrmsOMrlmbM5eVZxpFNLmgYQuCS7p6g</t>
   </si>
   <si>
-    <t>https://d1wqtxts1xzle7.cloudfront.net/76581555/leiseth-dissertation-casestudy-libre.pdf?1639702028=&amp;response-content-disposition=inline%3B+filename%3DA_Case_Study_of_the_Four_Day_School_Week.pdf&amp;Expires=1696263512&amp;Signature=hGKySDEAGKOsIIaZyv~jGegipmWfQe51vkNtqAkEijc5Le6wmZwI~pwx1w1njd076aCjiYqZhHrmNsQ7BNuU81HhI8-eGwFOb2Q-mgRsKIKx5WPwl9jk7eiWep~IVNYy3lPFNouf59MoXseumgqx~sq2ylP7~w5S3KhRlDwtiPKnld4578sXnY2g9CK09fJZ6h6GWgUOgfRlgp~uDyUutmpN-U-lA3iJwvEuwdWMWsjqj~PnGIMxWsWyhLdINow2XDkIpemDpxgxOpBjZPnFH1qk0w9rhYYmk4vNEpwB6yQSW-4WjHmnUYXnG806sb1SSLvTwt-NkHPbgbGBmma0rA__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
-  </si>
-  <si>
     <t>https://nwmissouri.edu/library/researchpapers/2014/Knapp,%20Kathryn.pdf</t>
   </si>
   <si>
@@ -1037,9 +1028,6 @@
   </si>
   <si>
     <t>https://bearworks.missouristate.edu/cgi/viewcontent.cgi?article=1160&amp;context=articles-coe</t>
-  </si>
-  <si>
-    <t>https://d1wqtxts1xzle7.cloudfront.net/79387510/s10588-015-9198-5-libre.pdf?1642897275=&amp;response-content-disposition=inline%3B+filename%3DWeekends_as_social_distancing_and_their.pdf&amp;Expires=1696264685&amp;Signature=Wis-HexzH2HsF3YhODAoEtEATzrcgDXLfIJBgaILl4Zdnc5ptuUGQdY14kCFNnRHoovqef9eETekI-ZKJzanwze~AexOB80KsUfVam2zSVC39YrDAuMqEX4wRjcdtBMFmSrSDhkOnLBAo6OI3a3TOhh67RgJPWhASK7q8hVEj1VguNu-NCsHh4oWszUoOz-MuuXkHwJglQD32IGqcuXiHtAHGtEUnuIy1zb8LqtumL05vruqGSCVwmKeZneUd97KgVUvggthIMHG1CsD2UXIByFhyF0DtchiWRwRTQPjANDadwJhYjKuoCaZRusZUYdHiHN~1HF6-a1EfSwR3MYwpw__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
   </si>
   <si>
     <t>https://files.eric.ed.gov/fulltext/ED497760.pdf</t>
@@ -1274,6 +1262,18 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/abs/pii/S0885200622001387</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/18eeda1fe30c14c8118424cc30e6e2b8/1?pq-origsite=gscholar&amp;cbl=18750</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10588-015-9198-5</t>
+  </si>
+  <si>
+    <t>https://www.proquest.com/openview/de319bec3de80be3c5c1721f151ab5ad/1?pq-origsite=gscholar&amp;cbl=18750</t>
+  </si>
+  <si>
+    <t>https://troyuniversity.on.worldcat.org/search/detail/719377305?queryString=ti%3A%28%E2%80%A2%09A%20comparative%20study%20of%20transportation%20costs%20for%20a%20four-day%20school%20week%20and%20a%20five%20day%20school%20week%20for%20Dougherty%20County%20schools%29&amp;databaseList=217%2C283%2C285%2C638&amp;origPageViewName=pages%2Fadvanced-search-page&amp;clusterResults=&amp;groupVariantRecords=&amp;expandSearch=true&amp;translateSearch=false&amp;queryTranslationLanguage=&amp;lang=en&amp;scope=wz%3A475</t>
   </si>
 </sst>
 </file>
@@ -1677,8 +1677,8 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1707,16 +1707,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1746,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1762,7 +1762,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1778,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1795,10 +1795,10 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -1813,7 +1813,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1829,7 +1829,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1848,7 +1848,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1864,10 +1864,10 @@
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1882,7 +1882,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1898,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>27</v>
@@ -1916,7 +1916,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1932,7 +1932,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1948,7 +1948,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1964,7 +1964,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1980,7 +1980,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1996,7 +1996,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2012,10 +2012,10 @@
         <v>41</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -2030,10 +2030,10 @@
         <v>43</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -2048,7 +2048,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2065,7 +2065,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2081,10 +2081,10 @@
         <v>49</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2099,7 +2099,7 @@
         <v>51</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2115,7 +2115,7 @@
         <v>53</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>54</v>
@@ -2133,7 +2133,7 @@
         <v>56</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2152,7 +2152,7 @@
         <v>59</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F27" s="6"/>
       <c r="H27" s="2"/>
@@ -2168,7 +2168,7 @@
         <v>61</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -2202,8 +2202,8 @@
       <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>306</v>
+      <c r="E30" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -2235,10 +2235,10 @@
         <v>72</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -2253,10 +2253,10 @@
         <v>74</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -2271,10 +2271,10 @@
         <v>76</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -2289,10 +2289,10 @@
         <v>78</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -2307,7 +2307,7 @@
         <v>80</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2345,7 +2345,7 @@
         <v>87</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2364,7 +2364,7 @@
         <v>90</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -2402,7 +2402,7 @@
         <v>97</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -2421,7 +2421,7 @@
         <v>100</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F42" s="6"/>
     </row>
@@ -2439,7 +2439,7 @@
         <v>103</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2474,7 +2474,7 @@
         <v>109</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -2490,7 +2490,7 @@
         <v>111</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -2506,10 +2506,10 @@
         <v>113</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -2524,7 +2524,7 @@
         <v>115</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2556,10 +2556,10 @@
         <v>120</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -2574,7 +2574,7 @@
         <v>122</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>123</v>
@@ -2592,10 +2592,10 @@
         <v>125</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -2610,7 +2610,7 @@
         <v>127</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>128</v>
@@ -2628,7 +2628,7 @@
         <v>130</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -2644,7 +2644,7 @@
         <v>132</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>133</v>
@@ -2662,7 +2662,7 @@
         <v>135</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -2678,7 +2678,7 @@
         <v>137</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -2694,7 +2694,7 @@
         <v>139</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -2710,7 +2710,7 @@
         <v>141</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -2742,7 +2742,7 @@
         <v>146</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>147</v>
@@ -2767,7 +2767,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
         <v>153</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -2800,7 +2800,7 @@
         <v>156</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -2816,7 +2816,7 @@
         <v>158</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -2832,10 +2832,10 @@
         <v>160</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -2849,7 +2849,7 @@
         <v>162</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -2881,7 +2881,7 @@
         <v>167</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -2900,10 +2900,10 @@
         <v>170</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
@@ -2917,7 +2917,7 @@
         <v>172</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -2933,7 +2933,7 @@
         <v>174</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -2949,13 +2949,13 @@
         <v>176</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="299.25" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>90</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>178</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -2982,7 +2982,7 @@
         <v>180</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -3015,7 +3015,7 @@
         <v>185</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -3031,10 +3031,10 @@
         <v>187</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -3051,7 +3051,7 @@
         <v>190</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -3067,7 +3067,7 @@
         <v>192</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -3083,7 +3083,7 @@
         <v>194</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>195</v>
@@ -3100,7 +3100,7 @@
         <v>197</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -3116,7 +3116,7 @@
         <v>199</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>200</v>
@@ -3133,7 +3133,7 @@
         <v>202</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>203</v>
@@ -3150,7 +3150,7 @@
         <v>205</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>206</v>
@@ -3167,7 +3167,7 @@
         <v>208</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>209</v>
@@ -3184,7 +3184,7 @@
         <v>211</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>212</v>
@@ -3201,7 +3201,7 @@
         <v>214</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -3217,7 +3217,7 @@
         <v>216</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>217</v>
@@ -3234,7 +3234,7 @@
         <v>219</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>220</v>
@@ -3251,7 +3251,7 @@
         <v>222</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>223</v>
@@ -3268,7 +3268,7 @@
         <v>225</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -3284,7 +3284,7 @@
         <v>227</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>228</v>
@@ -3301,7 +3301,7 @@
         <v>230</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -3317,7 +3317,7 @@
         <v>232</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -3333,12 +3333,12 @@
         <v>234</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>489</v>
       </c>
@@ -3351,8 +3351,8 @@
       <c r="D97" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>338</v>
+      <c r="E97" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -3382,7 +3382,7 @@
         <v>242</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -3398,7 +3398,7 @@
         <v>244</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -3414,7 +3414,7 @@
         <v>246</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -3430,13 +3430,13 @@
         <v>248</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1036</v>
       </c>
@@ -3446,25 +3446,26 @@
       <c r="C103" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>252</v>
-      </c>
+      <c r="E103" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G103" s="2"/>
     </row>
     <row r="104" spans="1:7" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1049</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="F104" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
@@ -3472,16 +3473,16 @@
         <v>1058</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="F105" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="G105" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
@@ -3489,16 +3490,16 @@
         <v>1059</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="F106" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
@@ -3506,13 +3507,13 @@
         <v>1062</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="E107" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -3522,16 +3523,16 @@
         <v>1068</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="F108" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="189" x14ac:dyDescent="0.25">
@@ -3539,16 +3540,16 @@
         <v>2125</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="F109" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="G109" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -3556,16 +3557,16 @@
         <v>2940</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="E110" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -3575,16 +3576,16 @@
         <v>2944</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="E111" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -3594,16 +3595,16 @@
         <v>3032</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="E112" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -3613,16 +3614,16 @@
         <v>3037</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="F113" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -3630,16 +3631,16 @@
         <v>3053</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F114" s="8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
@@ -3647,13 +3648,13 @@
         <v>3054</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E115" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
@@ -3663,16 +3664,16 @@
         <v>3056</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="F116" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H116" s="2"/>
     </row>
@@ -3701,139 +3702,140 @@
     <hyperlink ref="E26" r:id="rId17" xr:uid="{8F23CDCB-02D0-4AFB-9021-6D55E33040CB}"/>
     <hyperlink ref="E28" r:id="rId18" xr:uid="{C283E0D2-1D6F-439D-85B0-936881E72830}"/>
     <hyperlink ref="E29" r:id="rId19" xr:uid="{7AC187CB-4836-401E-B864-863209FA6E32}"/>
-    <hyperlink ref="E30" r:id="rId20" xr:uid="{BB9B0F28-219B-47A8-BC4B-65537D1A7726}"/>
-    <hyperlink ref="E31" r:id="rId21" xr:uid="{25EDA559-2CEF-4E44-8A06-E546F2B84006}"/>
-    <hyperlink ref="E36" r:id="rId22" xr:uid="{8FD33C4B-1CE3-46B3-A345-C21880F1752B}"/>
-    <hyperlink ref="E37" r:id="rId23" xr:uid="{93933E02-1ADB-4833-B0BF-E76973463EFD}"/>
-    <hyperlink ref="E38" r:id="rId24" xr:uid="{D4C64ECE-73E4-4CA3-AB45-13D807C4BCD1}"/>
-    <hyperlink ref="E39" r:id="rId25" xr:uid="{726B6699-D227-4F54-9DF6-317184A039DA}"/>
-    <hyperlink ref="E40" r:id="rId26" xr:uid="{79F1D1C5-D2E3-4FB6-8A42-30B6AAEEF86B}"/>
-    <hyperlink ref="E41" r:id="rId27" xr:uid="{20E8E01D-78AA-47AC-9647-41ACA9F319CB}"/>
-    <hyperlink ref="E43" r:id="rId28" xr:uid="{6A1DBB6C-24C8-41BD-A533-0EA7030055CA}"/>
-    <hyperlink ref="E44" r:id="rId29" xr:uid="{38840935-F564-4B2F-AF98-2373338AD887}"/>
-    <hyperlink ref="E45" r:id="rId30" xr:uid="{7D0E3DAE-672A-426E-ACAC-FAE418B4A88B}"/>
-    <hyperlink ref="E46" r:id="rId31" xr:uid="{B9916AA6-CF01-4BC3-BCC9-F57517EFCE1E}"/>
-    <hyperlink ref="E48" r:id="rId32" display="https://www.researchgate.net/profile/Kenneth_David_Strang/publication/318759251_Compressed_school_week_cultural_bias_against_English_Second_Language_student_performance_on_standardized_exams/links/597beb0a0f7e9b8802a94eae/Compressed-school-week-cultural-bias-against-English-Second-Language-student-performance-on-standardized-exams.pdf" xr:uid="{7FB4992C-4B4C-43CD-B296-8FFB935B2BF6}"/>
-    <hyperlink ref="E49" r:id="rId33" xr:uid="{9F240B81-948D-4D36-A688-55516C839E5B}"/>
-    <hyperlink ref="E54" r:id="rId34" xr:uid="{AFB2864A-A3BE-41C4-B7A2-577848D39FDF}"/>
-    <hyperlink ref="E56" r:id="rId35" xr:uid="{55D8ECA8-7BB8-43B4-8508-68F0B8B1327A}"/>
-    <hyperlink ref="E57" r:id="rId36" xr:uid="{403C5BB8-0295-4B17-A4BE-A7B60248A0E6}"/>
-    <hyperlink ref="E58" r:id="rId37" xr:uid="{4FF8993C-AF6D-4835-98AE-76B962E123C7}"/>
-    <hyperlink ref="E59" r:id="rId38" xr:uid="{ABC7321F-2557-486C-814E-68916EB62DAE}"/>
-    <hyperlink ref="E60" r:id="rId39" xr:uid="{0DDA3743-0C6A-4669-904F-B50DB4671549}"/>
-    <hyperlink ref="E62" r:id="rId40" xr:uid="{FBE4A921-F47C-49B4-920A-66482F71D76C}"/>
-    <hyperlink ref="E63" r:id="rId41" xr:uid="{EB5B1EAB-5BAD-4F14-8508-F98623DA2E55}"/>
-    <hyperlink ref="E65" r:id="rId42" xr:uid="{19EDA5A9-D350-4878-8439-07D4C5D87CA9}"/>
-    <hyperlink ref="E67" r:id="rId43" xr:uid="{29CAADCE-6EA2-4A75-A855-EA8C417DFC2E}"/>
-    <hyperlink ref="E68" r:id="rId44" xr:uid="{0FFE9A48-9BF4-450F-8C41-448EA45A1037}"/>
-    <hyperlink ref="E69" r:id="rId45" xr:uid="{7B403720-5732-4579-A81A-460233994424}"/>
-    <hyperlink ref="E71" r:id="rId46" xr:uid="{6E10ACEA-B39A-4D9B-B860-BC22E689266B}"/>
-    <hyperlink ref="E72" r:id="rId47" xr:uid="{B6653391-ACA1-49A5-B4A7-0383B0336B36}"/>
-    <hyperlink ref="E74" r:id="rId48" display="https://d1wqtxts1xzle7.cloudfront.net/76581555/leiseth-dissertation-casestudy-libre.pdf?1639702028=&amp;response-content-disposition=inline%3B+filename%3DA_Case_Study_of_the_Four_Day_School_Week.pdf&amp;Expires=1696263512&amp;Signature=hGKySDEAGKOsIIaZyv~jGegipmWfQe51vkNtqAkEijc5Le6wmZwI~pwx1w1njd076aCjiYqZhHrmNsQ7BNuU81HhI8-eGwFOb2Q-mgRsKIKx5WPwl9jk7eiWep~IVNYy3lPFNouf59MoXseumgqx~sq2ylP7~w5S3KhRlDwtiPKnld4578sXnY2g9CK09fJZ6h6GWgUOgfRlgp~uDyUutmpN-U-lA3iJwvEuwdWMWsjqj~PnGIMxWsWyhLdINow2XDkIpemDpxgxOpBjZPnFH1qk0w9rhYYmk4vNEpwB6yQSW-4WjHmnUYXnG806sb1SSLvTwt-NkHPbgbGBmma0rA__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{22910DB3-7BB1-4EA3-BFA9-B800FCDC40CB}"/>
-    <hyperlink ref="E75" r:id="rId49" xr:uid="{B93D594A-EBBD-435A-ABC8-033AA4A45C28}"/>
-    <hyperlink ref="G76" r:id="rId50" xr:uid="{EE0BFC8C-3D01-42C2-BAEB-B237BABF1A69}"/>
-    <hyperlink ref="E77" r:id="rId51" xr:uid="{3F6F9499-A97E-4D52-B3A3-0FC835000504}"/>
-    <hyperlink ref="E79" r:id="rId52" xr:uid="{29055D43-0525-4622-B58C-20DC934FBDC6}"/>
-    <hyperlink ref="E80" r:id="rId53" xr:uid="{9809B794-EB38-4209-AEE7-7CD866741154}"/>
-    <hyperlink ref="E82" r:id="rId54" xr:uid="{CFE5B0D6-A49F-46D0-AE67-5AF70E374F92}"/>
-    <hyperlink ref="E88" r:id="rId55" xr:uid="{E33C5101-8016-4004-97FF-0229DF5D2814}"/>
-    <hyperlink ref="E92" r:id="rId56" location="main" xr:uid="{62C8B0B9-4840-49B2-834E-11D0CF4C253A}"/>
-    <hyperlink ref="E94" r:id="rId57" xr:uid="{3CA66FC6-9EAD-4A9D-B0D5-89C0D376292D}"/>
-    <hyperlink ref="E95" r:id="rId58" xr:uid="{82B11CD5-828F-4A24-AB3F-193982E7E8F8}"/>
-    <hyperlink ref="E96" r:id="rId59" xr:uid="{09D59EDF-991D-4D4A-B2CC-A500EB72581A}"/>
-    <hyperlink ref="E97" r:id="rId60" display="https://d1wqtxts1xzle7.cloudfront.net/79387510/s10588-015-9198-5-libre.pdf?1642897275=&amp;response-content-disposition=inline%3B+filename%3DWeekends_as_social_distancing_and_their.pdf&amp;Expires=1696264685&amp;Signature=Wis-HexzH2HsF3YhODAoEtEATzrcgDXLfIJBgaILl4Zdnc5ptuUGQdY14kCFNnRHoovqef9eETekI-ZKJzanwze~AexOB80KsUfVam2zSVC39YrDAuMqEX4wRjcdtBMFmSrSDhkOnLBAo6OI3a3TOhh67RgJPWhASK7q8hVEj1VguNu-NCsHh4oWszUoOz-MuuXkHwJglQD32IGqcuXiHtAHGtEUnuIy1zb8LqtumL05vruqGSCVwmKeZneUd97KgVUvggthIMHG1CsD2UXIByFhyF0DtchiWRwRTQPjANDadwJhYjKuoCaZRusZUYdHiHN~1HF6-a1EfSwR3MYwpw__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{1A160E3F-C17B-4DB5-B0AB-645A9C0DA5B2}"/>
-    <hyperlink ref="E99" r:id="rId61" xr:uid="{7D9732F8-4B86-4CC0-BA46-9476AC4FED46}"/>
-    <hyperlink ref="E100" r:id="rId62" xr:uid="{4237288E-4FBF-4F0F-A678-3D2F910795B5}"/>
-    <hyperlink ref="E101" r:id="rId63" xr:uid="{7E5142FC-179E-40DE-9659-9A2FF9FBE683}"/>
-    <hyperlink ref="E107" r:id="rId64" xr:uid="{7B23BB16-71A0-48CE-805C-BFB42298FBE0}"/>
-    <hyperlink ref="E110" r:id="rId65" xr:uid="{4F277C05-BFBA-449F-8752-0E307436EF8B}"/>
-    <hyperlink ref="E111" r:id="rId66" xr:uid="{1BD26E75-488F-4E14-868C-15F5076003C8}"/>
-    <hyperlink ref="E112" r:id="rId67" xr:uid="{82B04AC4-0EEA-4F80-9B1C-210DE51E94D2}"/>
-    <hyperlink ref="E115" r:id="rId68" xr:uid="{AAA3C322-12A9-4415-922C-74D81FBD97D0}"/>
-    <hyperlink ref="G35" r:id="rId69" xr:uid="{37DEB6BB-AE21-4D65-82EC-6C9DBF9BF72E}"/>
-    <hyperlink ref="G47" r:id="rId70" xr:uid="{9CB66888-A383-4365-8DD1-455302DF0674}"/>
-    <hyperlink ref="G19" r:id="rId71" xr:uid="{711B05F0-8104-4514-A551-999C459B0406}"/>
-    <hyperlink ref="G20" r:id="rId72" xr:uid="{86C3D1CA-AFBE-4DEA-B627-F3EE69FC817E}"/>
-    <hyperlink ref="G23" r:id="rId73" xr:uid="{25A09BFF-36CF-4D51-A291-6A60A992586B}"/>
-    <hyperlink ref="G10" r:id="rId74" xr:uid="{DB27E19D-8146-406B-B6BF-26A5F14B3B99}"/>
-    <hyperlink ref="G33" r:id="rId75" xr:uid="{E07246F3-7066-4F69-A65F-98254F580ED2}"/>
-    <hyperlink ref="G32" r:id="rId76" xr:uid="{897C07DD-A940-4F52-BC65-355F4C7ED66F}"/>
-    <hyperlink ref="G66" r:id="rId77" xr:uid="{E00F78D5-8C8F-4AC0-A5D3-3FB528B3DEDC}"/>
-    <hyperlink ref="G70" r:id="rId78" xr:uid="{A052380E-5C98-42C1-A932-5875FDD6FE6B}"/>
-    <hyperlink ref="G73" r:id="rId79" xr:uid="{D5AD41E6-31BC-4E7C-B124-CA962E91B529}"/>
-    <hyperlink ref="G78" r:id="rId80" xr:uid="{1B103026-3767-4018-A1DF-7926BB7E5E25}"/>
-    <hyperlink ref="E64" r:id="rId81" xr:uid="{6FBC4659-CC58-4CDB-A278-79E1B49004ED}"/>
-    <hyperlink ref="G114" r:id="rId82" xr:uid="{46369FA8-2E83-4232-8E12-11FB6447F57B}"/>
-    <hyperlink ref="G113" r:id="rId83" xr:uid="{0C747466-E2A8-4064-9664-38F8692D95BE}"/>
-    <hyperlink ref="G52" r:id="rId84" xr:uid="{79A57BCB-B8A3-42ED-81D1-697677848967}"/>
-    <hyperlink ref="G50" r:id="rId85" xr:uid="{103E2B00-BE99-4D64-A40E-B74E114EFDDE}"/>
-    <hyperlink ref="G34" r:id="rId86" xr:uid="{CB043E3A-3A12-403C-A0EE-125259BC7972}"/>
-    <hyperlink ref="G6" r:id="rId87" xr:uid="{241256EE-D80C-425A-9E44-65827416D99C}"/>
-    <hyperlink ref="E27" r:id="rId88" xr:uid="{1E13DD51-B7EB-4EFC-A0A9-D847FE9069E7}"/>
-    <hyperlink ref="G55" r:id="rId89" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Impact+of+a+Four-Day+School+Week+on+Student+Discipline+and+Attendance+in+Missouri%3A+A+Quantitative+Study&amp;issn=&amp;date=2021-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Rowden%2C+Angelina&amp;isbn=9798492723514&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{38DBFA6E-C515-4D3D-87CC-444C2A425398}"/>
-    <hyperlink ref="G81" r:id="rId90" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Scheduling+adolescent+achievement%3A+Eighth-graders+and+the+four-day+school+week&amp;issn=&amp;date=2016-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Hegwood%2C+Jessica+Fleming&amp;isbn=978-1-369-48263-8&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{0613F951-D1AE-4EC3-9833-FA8C4694221E}"/>
-    <hyperlink ref="G83" r:id="rId91" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Elementary+Teachers%27+Perceptions+of+Appropriate+Collaborative+Planning+and+Professional+Planning+Time%3A+A+Case+Study&amp;issn=&amp;date=2017-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Wise%2C+Kristi&amp;isbn=978-0-355-10267-3&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{14A9FBBA-105C-4B03-9ABF-4E2F2F55564C}"/>
-    <hyperlink ref="G84" r:id="rId92" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=How+Teachers+Feel+Missouri+School+Schedules+Affect+Teachers+Morale%3A+A+Qualitative+Descriptive+Case+Study&amp;issn=&amp;date=2021-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Smith%2C+Tanya&amp;isbn=979-8-209-99102-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{D4DF9A4B-640B-439E-8775-F74D9F97A2DC}"/>
-    <hyperlink ref="G85" r:id="rId93" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=The+four-day+school+calendar%3A+A+comparative+study+of+student+performance+indicators+in+a+Colorado+school+district&amp;issn=&amp;date=2014-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Reeves%2C+Cheryl+L.&amp;isbn=978-1-303-87204-4&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{5226B787-9144-4A5E-9FBA-10DA9A3B75F6}"/>
-    <hyperlink ref="G87" r:id="rId94" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=The+effect+of+widespread+teacher+furlough+implementation+on+student+performance+on+the+reading%2C+mathematics%2C+and+science+portions+of+the+Hawaiii+State+Assessment&amp;issn=&amp;date=2014-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Lemmer%2C+Bridina+Marie&amp;isbn=978-1-321-05010-3&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{A5E16556-D2D1-4118-90B8-1FEC9124EC80}"/>
-    <hyperlink ref="G89" r:id="rId95" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Explorations+of+Student+and+Parent+Perceptions+of+Changes+in+Traditional+School+Schedule+and+Curriculum+to+Enhance+Competitiveness+with+Charter+Schools&amp;issn=&amp;date=2010-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Kelly%2C+Tiffany+K.&amp;isbn=978-1-124-37958-6&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{A20ED369-9206-4906-B16F-133E337B24F8}"/>
-    <hyperlink ref="G61" r:id="rId96" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Multicase+Exploration+of+Teachers%E2%80%99+Perceptions+of+Experience+of+Working+in+a+4-Day+Work+Week+School+System+Compared+to+a+5-Day+Work+Week+School+System&amp;issn=&amp;date=2020-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Reyes%2C+Lyscelle+M.&amp;isbn=9798698539339&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{19366349-0389-4EB5-BFAA-5FC19CEFC271}"/>
-    <hyperlink ref="G102" r:id="rId97" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=A+COMPARATIVE+CASE+STUDY+OF+THREE+MINNESOTA+SCHOOL+DISTRICTS+EMPLOYING+THE+FOUR-DAY-WEEK+DURING+1982-1983&amp;issn=&amp;date=1985-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=GUSHWA%2C+PRUDENCE+JOANNE&amp;isbn=979-8-205-15586-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{22F43609-39E4-4E93-A3FE-7092A4189348}"/>
-    <hyperlink ref="G91" r:id="rId98" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=A+Quasi-Experimental+Study+Comparing+Work-Life+Balance+and+Turnover+Intentions+Among+Rural+Oklahoma+Classroom+Teachers+Working+Four-Day+and+Five-Day+School+Weeks&amp;issn=&amp;date=2023-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Farber%2C+Misty+Dawn&amp;isbn=9798379420468&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{F99BA589-6518-4F6C-8F80-7D891CE3643F}"/>
-    <hyperlink ref="G93" r:id="rId99" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=The+Four-Day+School+Week+as+a+Path+for+Principal+Attraction+and+Retention%3A+Perceptions+of+Elementary+Principals+in+Missouri&amp;issn=&amp;date=2022-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Weber%2C+Laura+Elizabeth&amp;isbn=9798371990358&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{080115B2-EE11-4BBB-9C85-4C7B4A1AB587}"/>
-    <hyperlink ref="G25" r:id="rId100" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Can+the+4-day+school+week+work%3A+An+analysis+of+the+impact+of+the+4-day+school+week+on+a+rural+Georgia+school+district&amp;issn=&amp;date=2011-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Bell%2C+Jeffrey+L.&amp;isbn=978-1-124-72727-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{6C849674-A5F1-4DB7-97F2-46FD9340B54D}"/>
-    <hyperlink ref="G53" r:id="rId101" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=A+Case+Study+of+the+Influence+of+the+Four-Day+School+Week+on+an+Arizona+School+District&amp;issn=&amp;date=2018-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Savage%2C+Rachel+Marie&amp;isbn=978-0-355-82962-4&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{B6C75ECC-C9F1-43F9-B04E-41908ACC4FFD}"/>
-    <hyperlink ref="G51" r:id="rId102" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Impact+of+a+Four-Day+School+Week+on+Teacher+Preparation&amp;issn=&amp;date=2019-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Schultz%2C+Shawn+C.&amp;isbn=9798662399600&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{0ADED006-B3E9-4FB5-8E8A-C756268CB195}"/>
-    <hyperlink ref="G90" r:id="rId103" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Students%27+Scores+and+Attendance%3A+A+Study+of+South+Dakota+Schools+with+Four-Day+Schedules&amp;issn=&amp;date=2018-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Dolezal%2C+Dennis+W.&amp;isbn=978-0-355-97001-2&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{1543DFBB-C869-4A54-8C15-B482BC5DB0EA}"/>
-    <hyperlink ref="G105" r:id="rId104" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:book&amp;genre=report&amp;sid=ProQ:ProQ%3Aeric&amp;atitle=&amp;title=Colorado%27s+Alternative+School+Calendar+Program+and+the+Four+Day+Week&amp;issn=&amp;date=1982-01-01&amp;volume=&amp;issue=&amp;spage=1&amp;au=Brubacher%2C+Roy+G.%3BStiverson%2C+C.+L.&amp;isbn=&amp;jtitle=&amp;btitle=Colorado%27s+Alternative+School+Calendar+Program+and+the+Four+Day+Week&amp;rft_id=info:eric/ED214719&amp;rft_id=info:doi/" xr:uid="{6F06FFCC-824A-40D9-A384-F16940E98EDB}"/>
-    <hyperlink ref="G109" r:id="rId105" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;genre=article&amp;sid=ProQ:ProQ%3Aeric&amp;atitle=Changing+the+School+Calendar+to+Effect+Energy+Savings&amp;title=School+Business+Affairs&amp;issn=&amp;date=1980-01-01&amp;volume=46&amp;issue=1&amp;spage=11&amp;au=Webb%2C+L.+Dean%3BAshby%2C+Glenn+H.&amp;isbn=&amp;jtitle=School+Business+Affairs&amp;btitle=&amp;rft_id=info:eric/EJ214271&amp;rft_id=info:doi/" xr:uid="{1DBAFCB4-F00A-416F-88E4-8973143D463B}"/>
-    <hyperlink ref="G98" r:id="rId106" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=Investigation+of+the+four-day+school+week&amp;issn=&amp;date=2010-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Bronson%2C+Elizabeth+L.&amp;isbn=979-8-209-73276-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{5DDB6C57-84FC-4BC3-AB9B-5533118D109F}"/>
-    <hyperlink ref="G12" r:id="rId107" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=The+four-day+school+week%3A+Teacher+perceptions+in+a+rural%2Fsecondary+setting&amp;issn=&amp;date=2013-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Farris%2C+Brandon&amp;isbn=978-1-303-13374-9&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{C7A612FE-CED7-4984-B813-1D91DF15C00F}"/>
-    <hyperlink ref="G116" r:id="rId108" xr:uid="{C3FFAE78-7C53-4025-9DF8-CAB3F0011CBB}"/>
-    <hyperlink ref="E2" r:id="rId109" xr:uid="{09C3CA8A-8BC2-4AD9-B08C-84D514554E65}"/>
-    <hyperlink ref="E42" r:id="rId110" xr:uid="{BF57E8F0-8379-4844-A2C0-F3339AC66230}"/>
-    <hyperlink ref="F6" r:id="rId111" xr:uid="{4F06BD45-FC94-4C44-A215-69F3313C6F3F}"/>
-    <hyperlink ref="F10" r:id="rId112" xr:uid="{A13FFFD4-5A08-4BF7-BA9B-D46FA8324C1C}"/>
-    <hyperlink ref="F12" r:id="rId113" xr:uid="{1BF1EA1D-43D8-476D-8BAF-0D9476A35A08}"/>
-    <hyperlink ref="F19" r:id="rId114" xr:uid="{B23139D9-52FE-4A2D-B41C-6AEDA6C1E6BB}"/>
-    <hyperlink ref="F20" r:id="rId115" xr:uid="{945210BB-F866-4ADB-B638-6CA4F832B0A6}"/>
-    <hyperlink ref="F23" r:id="rId116" xr:uid="{08E25523-8C97-448B-96F4-B0C84E945DB7}"/>
-    <hyperlink ref="F25" r:id="rId117" xr:uid="{E4C74050-943A-4348-9344-B6692C96A745}"/>
-    <hyperlink ref="F32" r:id="rId118" xr:uid="{8176D4E4-9132-4B81-BBAA-7682A6369A8A}"/>
-    <hyperlink ref="F33" r:id="rId119" xr:uid="{BF655D2B-D90F-4CB4-A602-0C3C518CC049}"/>
-    <hyperlink ref="F34" r:id="rId120" xr:uid="{CA051A34-095E-4232-B04F-8E9FF78F8FE5}"/>
-    <hyperlink ref="F35" r:id="rId121" xr:uid="{F5230DC4-5181-4EB6-A3C4-09AFB5DEDCD6}"/>
-    <hyperlink ref="F47" r:id="rId122" xr:uid="{2FEE8DB8-1DBA-4D3F-B942-CDE6B8201DBA}"/>
-    <hyperlink ref="F50" r:id="rId123" xr:uid="{F9A71C84-339F-4332-883A-793A5279F7CF}"/>
-    <hyperlink ref="F51" r:id="rId124" xr:uid="{BF86D58D-72F4-481D-A118-3FAE08817096}"/>
-    <hyperlink ref="F52" r:id="rId125" xr:uid="{4BADF725-C66D-4D78-84F0-A9EE68A26A48}"/>
-    <hyperlink ref="F53" r:id="rId126" xr:uid="{BF05181B-FB72-4F6A-B925-22E06EEBD076}"/>
-    <hyperlink ref="F55" r:id="rId127" xr:uid="{705B1C43-7E31-4BA1-BB6F-E8685A0EE2F0}"/>
-    <hyperlink ref="F61" r:id="rId128" xr:uid="{CCF265E3-CCA9-42AB-9B7F-81CDEFA6EEF8}"/>
-    <hyperlink ref="F66" r:id="rId129" xr:uid="{E1FFC591-19EE-4544-AFA9-924519B5BF99}"/>
-    <hyperlink ref="F73" r:id="rId130" xr:uid="{36E27D57-9C63-402F-8E64-8024AC058ED1}"/>
-    <hyperlink ref="F78" r:id="rId131" xr:uid="{07F18462-9A49-4180-BEE3-0281D972C730}"/>
-    <hyperlink ref="F81" r:id="rId132" xr:uid="{A0D54C38-835C-4D1F-AE02-D99B437C012F}"/>
-    <hyperlink ref="F83" r:id="rId133" xr:uid="{39B94E8F-E2DB-4566-8128-B40B864B986E}"/>
-    <hyperlink ref="F84" r:id="rId134" xr:uid="{6216D95E-A97A-447F-862B-5AAE5D224416}"/>
-    <hyperlink ref="F85" r:id="rId135" xr:uid="{41EA29F7-EE20-454C-B947-A7AF3D7162E4}"/>
-    <hyperlink ref="F86" r:id="rId136" xr:uid="{3A94B2FE-C724-451A-ADCC-C3D72A5FB4EE}"/>
-    <hyperlink ref="F87" r:id="rId137" xr:uid="{60780240-2D2C-4685-BE6A-89203B380568}"/>
-    <hyperlink ref="F89" r:id="rId138" xr:uid="{D45B915A-C954-40DF-A0FF-1152A3B84023}"/>
-    <hyperlink ref="F90" r:id="rId139" xr:uid="{C77F15D2-726D-433F-BAF7-CE4CCD116903}"/>
-    <hyperlink ref="F91" r:id="rId140" xr:uid="{9D25038C-F4D4-4FD0-8160-1AAD13372298}"/>
-    <hyperlink ref="F93" r:id="rId141" xr:uid="{11CCE9AF-DAC5-44EF-9920-589EE9E7863D}"/>
-    <hyperlink ref="F102" r:id="rId142" xr:uid="{D31E20F5-4B75-4041-8DA2-D1FBA96AFB6C}"/>
-    <hyperlink ref="F104" r:id="rId143" xr:uid="{08CF1871-018A-4D45-BBB2-CD5BFCAD5628}"/>
-    <hyperlink ref="F105" r:id="rId144" xr:uid="{26B7E05D-A764-4710-B36A-AD05D2A0DDAA}"/>
-    <hyperlink ref="F106" r:id="rId145" xr:uid="{EFF9E1F9-8DFE-49D8-AA5A-6DD34881E8D5}"/>
-    <hyperlink ref="F108" r:id="rId146" xr:uid="{0FF6572C-698B-49CB-9D39-458AF086C282}"/>
-    <hyperlink ref="F109" r:id="rId147" xr:uid="{3BE7CB94-374E-45F5-9A01-14E192831D5C}"/>
-    <hyperlink ref="F114" r:id="rId148" xr:uid="{3C77CA3E-8C16-4B1F-82CE-3BCB2977324B}"/>
-    <hyperlink ref="F76" r:id="rId149" xr:uid="{68ADB003-7AA3-4AFE-B6F8-DEAF9C96BB13}"/>
-    <hyperlink ref="F70" r:id="rId150" xr:uid="{37D06BD9-FF5F-45E4-B8D7-E515784C5BD9}"/>
+    <hyperlink ref="E31" r:id="rId20" xr:uid="{25EDA559-2CEF-4E44-8A06-E546F2B84006}"/>
+    <hyperlink ref="E36" r:id="rId21" xr:uid="{8FD33C4B-1CE3-46B3-A345-C21880F1752B}"/>
+    <hyperlink ref="E37" r:id="rId22" xr:uid="{93933E02-1ADB-4833-B0BF-E76973463EFD}"/>
+    <hyperlink ref="E38" r:id="rId23" xr:uid="{D4C64ECE-73E4-4CA3-AB45-13D807C4BCD1}"/>
+    <hyperlink ref="E39" r:id="rId24" xr:uid="{726B6699-D227-4F54-9DF6-317184A039DA}"/>
+    <hyperlink ref="E40" r:id="rId25" xr:uid="{79F1D1C5-D2E3-4FB6-8A42-30B6AAEEF86B}"/>
+    <hyperlink ref="E41" r:id="rId26" xr:uid="{20E8E01D-78AA-47AC-9647-41ACA9F319CB}"/>
+    <hyperlink ref="E43" r:id="rId27" xr:uid="{6A1DBB6C-24C8-41BD-A533-0EA7030055CA}"/>
+    <hyperlink ref="E44" r:id="rId28" xr:uid="{38840935-F564-4B2F-AF98-2373338AD887}"/>
+    <hyperlink ref="E45" r:id="rId29" xr:uid="{7D0E3DAE-672A-426E-ACAC-FAE418B4A88B}"/>
+    <hyperlink ref="E46" r:id="rId30" xr:uid="{B9916AA6-CF01-4BC3-BCC9-F57517EFCE1E}"/>
+    <hyperlink ref="E48" r:id="rId31" display="https://www.researchgate.net/profile/Kenneth_David_Strang/publication/318759251_Compressed_school_week_cultural_bias_against_English_Second_Language_student_performance_on_standardized_exams/links/597beb0a0f7e9b8802a94eae/Compressed-school-week-cultural-bias-against-English-Second-Language-student-performance-on-standardized-exams.pdf" xr:uid="{7FB4992C-4B4C-43CD-B296-8FFB935B2BF6}"/>
+    <hyperlink ref="E49" r:id="rId32" xr:uid="{9F240B81-948D-4D36-A688-55516C839E5B}"/>
+    <hyperlink ref="E54" r:id="rId33" xr:uid="{AFB2864A-A3BE-41C4-B7A2-577848D39FDF}"/>
+    <hyperlink ref="E56" r:id="rId34" xr:uid="{55D8ECA8-7BB8-43B4-8508-68F0B8B1327A}"/>
+    <hyperlink ref="E57" r:id="rId35" xr:uid="{403C5BB8-0295-4B17-A4BE-A7B60248A0E6}"/>
+    <hyperlink ref="E58" r:id="rId36" xr:uid="{4FF8993C-AF6D-4835-98AE-76B962E123C7}"/>
+    <hyperlink ref="E59" r:id="rId37" xr:uid="{ABC7321F-2557-486C-814E-68916EB62DAE}"/>
+    <hyperlink ref="E60" r:id="rId38" xr:uid="{0DDA3743-0C6A-4669-904F-B50DB4671549}"/>
+    <hyperlink ref="E62" r:id="rId39" xr:uid="{FBE4A921-F47C-49B4-920A-66482F71D76C}"/>
+    <hyperlink ref="E63" r:id="rId40" xr:uid="{EB5B1EAB-5BAD-4F14-8508-F98623DA2E55}"/>
+    <hyperlink ref="E65" r:id="rId41" xr:uid="{19EDA5A9-D350-4878-8439-07D4C5D87CA9}"/>
+    <hyperlink ref="E67" r:id="rId42" xr:uid="{29CAADCE-6EA2-4A75-A855-EA8C417DFC2E}"/>
+    <hyperlink ref="E68" r:id="rId43" xr:uid="{0FFE9A48-9BF4-450F-8C41-448EA45A1037}"/>
+    <hyperlink ref="E69" r:id="rId44" xr:uid="{7B403720-5732-4579-A81A-460233994424}"/>
+    <hyperlink ref="E71" r:id="rId45" xr:uid="{6E10ACEA-B39A-4D9B-B860-BC22E689266B}"/>
+    <hyperlink ref="E72" r:id="rId46" xr:uid="{B6653391-ACA1-49A5-B4A7-0383B0336B36}"/>
+    <hyperlink ref="E75" r:id="rId47" xr:uid="{B93D594A-EBBD-435A-ABC8-033AA4A45C28}"/>
+    <hyperlink ref="G76" r:id="rId48" xr:uid="{EE0BFC8C-3D01-42C2-BAEB-B237BABF1A69}"/>
+    <hyperlink ref="E77" r:id="rId49" xr:uid="{3F6F9499-A97E-4D52-B3A3-0FC835000504}"/>
+    <hyperlink ref="E79" r:id="rId50" xr:uid="{29055D43-0525-4622-B58C-20DC934FBDC6}"/>
+    <hyperlink ref="E80" r:id="rId51" xr:uid="{9809B794-EB38-4209-AEE7-7CD866741154}"/>
+    <hyperlink ref="E82" r:id="rId52" xr:uid="{CFE5B0D6-A49F-46D0-AE67-5AF70E374F92}"/>
+    <hyperlink ref="E88" r:id="rId53" xr:uid="{E33C5101-8016-4004-97FF-0229DF5D2814}"/>
+    <hyperlink ref="E92" r:id="rId54" location="main" xr:uid="{62C8B0B9-4840-49B2-834E-11D0CF4C253A}"/>
+    <hyperlink ref="E94" r:id="rId55" xr:uid="{3CA66FC6-9EAD-4A9D-B0D5-89C0D376292D}"/>
+    <hyperlink ref="E95" r:id="rId56" xr:uid="{82B11CD5-828F-4A24-AB3F-193982E7E8F8}"/>
+    <hyperlink ref="E96" r:id="rId57" xr:uid="{09D59EDF-991D-4D4A-B2CC-A500EB72581A}"/>
+    <hyperlink ref="E99" r:id="rId58" xr:uid="{7D9732F8-4B86-4CC0-BA46-9476AC4FED46}"/>
+    <hyperlink ref="E100" r:id="rId59" xr:uid="{4237288E-4FBF-4F0F-A678-3D2F910795B5}"/>
+    <hyperlink ref="E101" r:id="rId60" xr:uid="{7E5142FC-179E-40DE-9659-9A2FF9FBE683}"/>
+    <hyperlink ref="E107" r:id="rId61" xr:uid="{7B23BB16-71A0-48CE-805C-BFB42298FBE0}"/>
+    <hyperlink ref="E110" r:id="rId62" xr:uid="{4F277C05-BFBA-449F-8752-0E307436EF8B}"/>
+    <hyperlink ref="E111" r:id="rId63" xr:uid="{1BD26E75-488F-4E14-868C-15F5076003C8}"/>
+    <hyperlink ref="E112" r:id="rId64" xr:uid="{82B04AC4-0EEA-4F80-9B1C-210DE51E94D2}"/>
+    <hyperlink ref="E115" r:id="rId65" xr:uid="{AAA3C322-12A9-4415-922C-74D81FBD97D0}"/>
+    <hyperlink ref="G35" r:id="rId66" xr:uid="{37DEB6BB-AE21-4D65-82EC-6C9DBF9BF72E}"/>
+    <hyperlink ref="G47" r:id="rId67" xr:uid="{9CB66888-A383-4365-8DD1-455302DF0674}"/>
+    <hyperlink ref="G19" r:id="rId68" xr:uid="{711B05F0-8104-4514-A551-999C459B0406}"/>
+    <hyperlink ref="G20" r:id="rId69" xr:uid="{86C3D1CA-AFBE-4DEA-B627-F3EE69FC817E}"/>
+    <hyperlink ref="G23" r:id="rId70" xr:uid="{25A09BFF-36CF-4D51-A291-6A60A992586B}"/>
+    <hyperlink ref="G10" r:id="rId71" xr:uid="{DB27E19D-8146-406B-B6BF-26A5F14B3B99}"/>
+    <hyperlink ref="G33" r:id="rId72" xr:uid="{E07246F3-7066-4F69-A65F-98254F580ED2}"/>
+    <hyperlink ref="G32" r:id="rId73" xr:uid="{897C07DD-A940-4F52-BC65-355F4C7ED66F}"/>
+    <hyperlink ref="G66" r:id="rId74" xr:uid="{E00F78D5-8C8F-4AC0-A5D3-3FB528B3DEDC}"/>
+    <hyperlink ref="G70" r:id="rId75" xr:uid="{A052380E-5C98-42C1-A932-5875FDD6FE6B}"/>
+    <hyperlink ref="G73" r:id="rId76" xr:uid="{D5AD41E6-31BC-4E7C-B124-CA962E91B529}"/>
+    <hyperlink ref="G78" r:id="rId77" xr:uid="{1B103026-3767-4018-A1DF-7926BB7E5E25}"/>
+    <hyperlink ref="E64" r:id="rId78" xr:uid="{6FBC4659-CC58-4CDB-A278-79E1B49004ED}"/>
+    <hyperlink ref="G114" r:id="rId79" xr:uid="{46369FA8-2E83-4232-8E12-11FB6447F57B}"/>
+    <hyperlink ref="G113" r:id="rId80" xr:uid="{0C747466-E2A8-4064-9664-38F8692D95BE}"/>
+    <hyperlink ref="G52" r:id="rId81" xr:uid="{79A57BCB-B8A3-42ED-81D1-697677848967}"/>
+    <hyperlink ref="G50" r:id="rId82" xr:uid="{103E2B00-BE99-4D64-A40E-B74E114EFDDE}"/>
+    <hyperlink ref="G34" r:id="rId83" xr:uid="{CB043E3A-3A12-403C-A0EE-125259BC7972}"/>
+    <hyperlink ref="G6" r:id="rId84" xr:uid="{241256EE-D80C-425A-9E44-65827416D99C}"/>
+    <hyperlink ref="E27" r:id="rId85" xr:uid="{1E13DD51-B7EB-4EFC-A0A9-D847FE9069E7}"/>
+    <hyperlink ref="G55" r:id="rId86" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Impact+of+a+Four-Day+School+Week+on+Student+Discipline+and+Attendance+in+Missouri%3A+A+Quantitative+Study&amp;issn=&amp;date=2021-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Rowden%2C+Angelina&amp;isbn=9798492723514&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{38DBFA6E-C515-4D3D-87CC-444C2A425398}"/>
+    <hyperlink ref="G81" r:id="rId87" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Scheduling+adolescent+achievement%3A+Eighth-graders+and+the+four-day+school+week&amp;issn=&amp;date=2016-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Hegwood%2C+Jessica+Fleming&amp;isbn=978-1-369-48263-8&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{0613F951-D1AE-4EC3-9833-FA8C4694221E}"/>
+    <hyperlink ref="G83" r:id="rId88" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Elementary+Teachers%27+Perceptions+of+Appropriate+Collaborative+Planning+and+Professional+Planning+Time%3A+A+Case+Study&amp;issn=&amp;date=2017-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Wise%2C+Kristi&amp;isbn=978-0-355-10267-3&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{14A9FBBA-105C-4B03-9ABF-4E2F2F55564C}"/>
+    <hyperlink ref="G84" r:id="rId89" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=How+Teachers+Feel+Missouri+School+Schedules+Affect+Teachers+Morale%3A+A+Qualitative+Descriptive+Case+Study&amp;issn=&amp;date=2021-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Smith%2C+Tanya&amp;isbn=979-8-209-99102-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{D4DF9A4B-640B-439E-8775-F74D9F97A2DC}"/>
+    <hyperlink ref="G85" r:id="rId90" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=The+four-day+school+calendar%3A+A+comparative+study+of+student+performance+indicators+in+a+Colorado+school+district&amp;issn=&amp;date=2014-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Reeves%2C+Cheryl+L.&amp;isbn=978-1-303-87204-4&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{5226B787-9144-4A5E-9FBA-10DA9A3B75F6}"/>
+    <hyperlink ref="G87" r:id="rId91" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=The+effect+of+widespread+teacher+furlough+implementation+on+student+performance+on+the+reading%2C+mathematics%2C+and+science+portions+of+the+Hawaiii+State+Assessment&amp;issn=&amp;date=2014-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Lemmer%2C+Bridina+Marie&amp;isbn=978-1-321-05010-3&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{A5E16556-D2D1-4118-90B8-1FEC9124EC80}"/>
+    <hyperlink ref="G89" r:id="rId92" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Explorations+of+Student+and+Parent+Perceptions+of+Changes+in+Traditional+School+Schedule+and+Curriculum+to+Enhance+Competitiveness+with+Charter+Schools&amp;issn=&amp;date=2010-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Kelly%2C+Tiffany+K.&amp;isbn=978-1-124-37958-6&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{A20ED369-9206-4906-B16F-133E337B24F8}"/>
+    <hyperlink ref="G61" r:id="rId93" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Multicase+Exploration+of+Teachers%E2%80%99+Perceptions+of+Experience+of+Working+in+a+4-Day+Work+Week+School+System+Compared+to+a+5-Day+Work+Week+School+System&amp;issn=&amp;date=2020-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Reyes%2C+Lyscelle+M.&amp;isbn=9798698539339&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{19366349-0389-4EB5-BFAA-5FC19CEFC271}"/>
+    <hyperlink ref="G102" r:id="rId94" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=A+COMPARATIVE+CASE+STUDY+OF+THREE+MINNESOTA+SCHOOL+DISTRICTS+EMPLOYING+THE+FOUR-DAY-WEEK+DURING+1982-1983&amp;issn=&amp;date=1985-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=GUSHWA%2C+PRUDENCE+JOANNE&amp;isbn=979-8-205-15586-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{22F43609-39E4-4E93-A3FE-7092A4189348}"/>
+    <hyperlink ref="G91" r:id="rId95" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=A+Quasi-Experimental+Study+Comparing+Work-Life+Balance+and+Turnover+Intentions+Among+Rural+Oklahoma+Classroom+Teachers+Working+Four-Day+and+Five-Day+School+Weeks&amp;issn=&amp;date=2023-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Farber%2C+Misty+Dawn&amp;isbn=9798379420468&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{F99BA589-6518-4F6C-8F80-7D891CE3643F}"/>
+    <hyperlink ref="G93" r:id="rId96" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=The+Four-Day+School+Week+as+a+Path+for+Principal+Attraction+and+Retention%3A+Perceptions+of+Elementary+Principals+in+Missouri&amp;issn=&amp;date=2022-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Weber%2C+Laura+Elizabeth&amp;isbn=9798371990358&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{080115B2-EE11-4BBB-9C85-4C7B4A1AB587}"/>
+    <hyperlink ref="G25" r:id="rId97" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Can+the+4-day+school+week+work%3A+An+analysis+of+the+impact+of+the+4-day+school+week+on+a+rural+Georgia+school+district&amp;issn=&amp;date=2011-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Bell%2C+Jeffrey+L.&amp;isbn=978-1-124-72727-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{6C849674-A5F1-4DB7-97F2-46FD9340B54D}"/>
+    <hyperlink ref="G53" r:id="rId98" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=A+Case+Study+of+the+Influence+of+the+Four-Day+School+Week+on+an+Arizona+School+District&amp;issn=&amp;date=2018-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Savage%2C+Rachel+Marie&amp;isbn=978-0-355-82962-4&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{B6C75ECC-C9F1-43F9-B04E-41908ACC4FFD}"/>
+    <hyperlink ref="G51" r:id="rId99" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Impact+of+a+Four-Day+School+Week+on+Teacher+Preparation&amp;issn=&amp;date=2019-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Schultz%2C+Shawn+C.&amp;isbn=9798662399600&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{0ADED006-B3E9-4FB5-8E8A-C756268CB195}"/>
+    <hyperlink ref="G90" r:id="rId100" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=Students%27+Scores+and+Attendance%3A+A+Study+of+South+Dakota+Schools+with+Four-Day+Schedules&amp;issn=&amp;date=2018-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Dolezal%2C+Dennis+W.&amp;isbn=978-0-355-97001-2&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{1543DFBB-C869-4A54-8C15-B482BC5DB0EA}"/>
+    <hyperlink ref="G105" r:id="rId101" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:book&amp;genre=report&amp;sid=ProQ:ProQ%3Aeric&amp;atitle=&amp;title=Colorado%27s+Alternative+School+Calendar+Program+and+the+Four+Day+Week&amp;issn=&amp;date=1982-01-01&amp;volume=&amp;issue=&amp;spage=1&amp;au=Brubacher%2C+Roy+G.%3BStiverson%2C+C.+L.&amp;isbn=&amp;jtitle=&amp;btitle=Colorado%27s+Alternative+School+Calendar+Program+and+the+Four+Day+Week&amp;rft_id=info:eric/ED214719&amp;rft_id=info:doi/" xr:uid="{6F06FFCC-824A-40D9-A384-F16940E98EDB}"/>
+    <hyperlink ref="G109" r:id="rId102" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;genre=article&amp;sid=ProQ:ProQ%3Aeric&amp;atitle=Changing+the+School+Calendar+to+Effect+Energy+Savings&amp;title=School+Business+Affairs&amp;issn=&amp;date=1980-01-01&amp;volume=46&amp;issue=1&amp;spage=11&amp;au=Webb%2C+L.+Dean%3BAshby%2C+Glenn+H.&amp;isbn=&amp;jtitle=School+Business+Affairs&amp;btitle=&amp;rft_id=info:eric/EJ214271&amp;rft_id=info:doi/" xr:uid="{1DBAFCB4-F00A-416F-88E4-8973143D463B}"/>
+    <hyperlink ref="G98" r:id="rId103" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+A%26I&amp;atitle=&amp;title=Investigation+of+the+four-day+school+week&amp;issn=&amp;date=2010-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Bronson%2C+Elizabeth+L.&amp;isbn=979-8-209-73276-1&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{5DDB6C57-84FC-4BC3-AB9B-5533118D109F}"/>
+    <hyperlink ref="G12" r:id="rId104" display="https://alliance-uoregon.primo.exlibrisgroup.com/openurl/01ALLIANCE_UO/01ALLIANCE_UO:UO??url_ver=Z39.88-2004&amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;genre=dissertations&amp;sid=ProQ:Education+Database&amp;atitle=&amp;title=The+four-day+school+week%3A+Teacher+perceptions+in+a+rural%2Fsecondary+setting&amp;issn=&amp;date=2013-01-01&amp;volume=&amp;issue=&amp;spage=&amp;au=Farris%2C+Brandon&amp;isbn=978-1-303-13374-9&amp;jtitle=&amp;btitle=&amp;rft_id=info:eric/&amp;rft_id=info:doi/" xr:uid="{C7A612FE-CED7-4984-B813-1D91DF15C00F}"/>
+    <hyperlink ref="G116" r:id="rId105" xr:uid="{C3FFAE78-7C53-4025-9DF8-CAB3F0011CBB}"/>
+    <hyperlink ref="E2" r:id="rId106" xr:uid="{09C3CA8A-8BC2-4AD9-B08C-84D514554E65}"/>
+    <hyperlink ref="E42" r:id="rId107" xr:uid="{BF57E8F0-8379-4844-A2C0-F3339AC66230}"/>
+    <hyperlink ref="F6" r:id="rId108" xr:uid="{4F06BD45-FC94-4C44-A215-69F3313C6F3F}"/>
+    <hyperlink ref="F10" r:id="rId109" xr:uid="{A13FFFD4-5A08-4BF7-BA9B-D46FA8324C1C}"/>
+    <hyperlink ref="F12" r:id="rId110" xr:uid="{1BF1EA1D-43D8-476D-8BAF-0D9476A35A08}"/>
+    <hyperlink ref="F19" r:id="rId111" xr:uid="{B23139D9-52FE-4A2D-B41C-6AEDA6C1E6BB}"/>
+    <hyperlink ref="F20" r:id="rId112" xr:uid="{945210BB-F866-4ADB-B638-6CA4F832B0A6}"/>
+    <hyperlink ref="F23" r:id="rId113" xr:uid="{08E25523-8C97-448B-96F4-B0C84E945DB7}"/>
+    <hyperlink ref="F25" r:id="rId114" xr:uid="{E4C74050-943A-4348-9344-B6692C96A745}"/>
+    <hyperlink ref="F32" r:id="rId115" xr:uid="{8176D4E4-9132-4B81-BBAA-7682A6369A8A}"/>
+    <hyperlink ref="F33" r:id="rId116" xr:uid="{BF655D2B-D90F-4CB4-A602-0C3C518CC049}"/>
+    <hyperlink ref="F34" r:id="rId117" xr:uid="{CA051A34-095E-4232-B04F-8E9FF78F8FE5}"/>
+    <hyperlink ref="F35" r:id="rId118" xr:uid="{F5230DC4-5181-4EB6-A3C4-09AFB5DEDCD6}"/>
+    <hyperlink ref="F47" r:id="rId119" xr:uid="{2FEE8DB8-1DBA-4D3F-B942-CDE6B8201DBA}"/>
+    <hyperlink ref="F50" r:id="rId120" xr:uid="{F9A71C84-339F-4332-883A-793A5279F7CF}"/>
+    <hyperlink ref="F51" r:id="rId121" xr:uid="{BF86D58D-72F4-481D-A118-3FAE08817096}"/>
+    <hyperlink ref="F52" r:id="rId122" xr:uid="{4BADF725-C66D-4D78-84F0-A9EE68A26A48}"/>
+    <hyperlink ref="F53" r:id="rId123" xr:uid="{BF05181B-FB72-4F6A-B925-22E06EEBD076}"/>
+    <hyperlink ref="F55" r:id="rId124" xr:uid="{705B1C43-7E31-4BA1-BB6F-E8685A0EE2F0}"/>
+    <hyperlink ref="F61" r:id="rId125" xr:uid="{CCF265E3-CCA9-42AB-9B7F-81CDEFA6EEF8}"/>
+    <hyperlink ref="F66" r:id="rId126" xr:uid="{E1FFC591-19EE-4544-AFA9-924519B5BF99}"/>
+    <hyperlink ref="F73" r:id="rId127" xr:uid="{36E27D57-9C63-402F-8E64-8024AC058ED1}"/>
+    <hyperlink ref="F78" r:id="rId128" xr:uid="{07F18462-9A49-4180-BEE3-0281D972C730}"/>
+    <hyperlink ref="F81" r:id="rId129" xr:uid="{A0D54C38-835C-4D1F-AE02-D99B437C012F}"/>
+    <hyperlink ref="F83" r:id="rId130" xr:uid="{39B94E8F-E2DB-4566-8128-B40B864B986E}"/>
+    <hyperlink ref="F84" r:id="rId131" xr:uid="{6216D95E-A97A-447F-862B-5AAE5D224416}"/>
+    <hyperlink ref="F85" r:id="rId132" xr:uid="{41EA29F7-EE20-454C-B947-A7AF3D7162E4}"/>
+    <hyperlink ref="F86" r:id="rId133" xr:uid="{3A94B2FE-C724-451A-ADCC-C3D72A5FB4EE}"/>
+    <hyperlink ref="F87" r:id="rId134" xr:uid="{60780240-2D2C-4685-BE6A-89203B380568}"/>
+    <hyperlink ref="F89" r:id="rId135" xr:uid="{D45B915A-C954-40DF-A0FF-1152A3B84023}"/>
+    <hyperlink ref="F90" r:id="rId136" xr:uid="{C77F15D2-726D-433F-BAF7-CE4CCD116903}"/>
+    <hyperlink ref="F91" r:id="rId137" xr:uid="{9D25038C-F4D4-4FD0-8160-1AAD13372298}"/>
+    <hyperlink ref="F93" r:id="rId138" xr:uid="{11CCE9AF-DAC5-44EF-9920-589EE9E7863D}"/>
+    <hyperlink ref="F102" r:id="rId139" xr:uid="{D31E20F5-4B75-4041-8DA2-D1FBA96AFB6C}"/>
+    <hyperlink ref="F104" r:id="rId140" xr:uid="{08CF1871-018A-4D45-BBB2-CD5BFCAD5628}"/>
+    <hyperlink ref="F105" r:id="rId141" xr:uid="{26B7E05D-A764-4710-B36A-AD05D2A0DDAA}"/>
+    <hyperlink ref="F106" r:id="rId142" xr:uid="{EFF9E1F9-8DFE-49D8-AA5A-6DD34881E8D5}"/>
+    <hyperlink ref="F108" r:id="rId143" xr:uid="{0FF6572C-698B-49CB-9D39-458AF086C282}"/>
+    <hyperlink ref="F109" r:id="rId144" xr:uid="{3BE7CB94-374E-45F5-9A01-14E192831D5C}"/>
+    <hyperlink ref="F114" r:id="rId145" xr:uid="{3C77CA3E-8C16-4B1F-82CE-3BCB2977324B}"/>
+    <hyperlink ref="F76" r:id="rId146" xr:uid="{68ADB003-7AA3-4AFE-B6F8-DEAF9C96BB13}"/>
+    <hyperlink ref="F70" r:id="rId147" xr:uid="{37D06BD9-FF5F-45E4-B8D7-E515784C5BD9}"/>
+    <hyperlink ref="E74" r:id="rId148" xr:uid="{7C613927-3781-4503-BA90-4FFFA86CC5F9}"/>
+    <hyperlink ref="E97" r:id="rId149" xr:uid="{99A8C6DD-2AB1-4125-AB8C-F0143D5C0BB6}"/>
+    <hyperlink ref="E30" r:id="rId150" xr:uid="{D70B88AD-F1F7-4DF4-A2F1-B6FB662309DC}"/>
+    <hyperlink ref="E103" r:id="rId151" display="https://troyuniversity.on.worldcat.org/search/detail/719377305?queryString=ti%3A%28%E2%80%A2%09A%20comparative%20study%20of%20transportation%20costs%20for%20a%20four-day%20school%20week%20and%20a%20five%20day%20school%20week%20for%20Dougherty%20County%20schools%29&amp;databaseList=217%2C283%2C285%2C638&amp;origPageViewName=pages%2Fadvanced-search-page&amp;clusterResults=&amp;groupVariantRecords=&amp;expandSearch=true&amp;translateSearch=false&amp;queryTranslationLanguage=&amp;lang=en&amp;scope=wz%3A475" xr:uid="{988E72D6-7267-4742-83FC-666AF52BCC62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId151"/>
+  <pageSetup orientation="portrait" r:id="rId152"/>
 </worksheet>
 </file>